--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574F90CB-3C9A-4E63-8145-47AC0156D2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA56EB90-5465-464C-A6B4-04B8A3FF12E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>N-m/rad</t>
   </si>
@@ -98,6 +98,15 @@
   <si>
     <t>wire diameter
 (mm)                                                              (in)</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>first iteration of calculations - wanted higher number of coils but ended up being too wide</t>
+  </si>
+  <si>
+    <t>second iteration of calculations - fewer coils</t>
   </si>
 </sst>
 </file>
@@ -154,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -167,6 +176,16 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -175,13 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,12 +523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -590,10 +603,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="13"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -636,8 +649,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -652,27 +665,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCADA16-F37A-4E24-B4B4-CAC4D5F5F2A3}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="3" max="7" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -682,8 +696,11 @@
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40</v>
       </c>
@@ -711,7 +728,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19</v>
       </c>
@@ -738,7 +755,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
@@ -765,7 +782,7 @@
         <v>27.343989054843124</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -792,7 +809,7 @@
         <v>27.645566906995271</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>(($B$21*1000000000)*(C8/1000)^4)/(64*(F8/1000)*E8)</f>
         <v>39.648200098975394</v>
@@ -804,23 +821,26 @@
         <f>CONVERT(D8,"in","mm")</f>
         <v>7.1437499999999998</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f>9/32</f>
         <v>0.28125</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f>G8+C8</f>
         <v>34.793749999999996</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <f>27.65</f>
         <v>27.65</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>(($B$21*1000000000)*(C9/1000)^4)/(64*(F9/1000)*E9)</f>
         <v>18.997522683320884</v>
@@ -832,30 +852,139 @@
         <f>CONVERT(D9,"in","mm")</f>
         <v>6.35</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f>1/4</f>
         <v>0.25</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <f>G9+C9</f>
         <v>34</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <f>27.65</f>
         <v>27.65</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>CONVERT(D11,"in","mm")</f>
+        <v>6.35</v>
+      </c>
+      <c r="D11" s="6">
+        <f>8/32</f>
+        <v>0.25</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <f>((($B$21*1000000000)*(C11/1000)^4)/(64*A11*E11))*1000</f>
+        <v>32.295788561645509</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F11-C11</f>
+        <v>25.945788561645507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <f>CONVERT(D12,"in","mm")</f>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="D12" s="16">
+        <f>7/32</f>
+        <v>0.21875</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <f>((($B$21*1000000000)*(C12/1000)^4)/(64*A12*E12))*1000</f>
+        <v>31.884123493631115</v>
+      </c>
+      <c r="G12" s="1">
+        <f>F12-C12</f>
+        <v>26.327873493631117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f>(($B$21*1000000000)*(C14/1000)^4)/(64*(F14/1000)*E14)</f>
+        <v>39.74866284510216</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>CONVERT(D14,"in","mm")</f>
+        <v>6.35</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11">
+        <f>G14+C14</f>
+        <v>32.5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>26.15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>(($B$21*1000000000)*(C15/1000)^4)/(64*(F15/1000)*E15)</f>
+        <v>19.106590857606662</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f>CONVERT(D15,"in","mm")</f>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.21875</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11">
+        <f>G15+C15</f>
+        <v>31.706249999999997</v>
+      </c>
+      <c r="G15" s="10">
+        <v>26.15</v>
+      </c>
+    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>203.4</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
     </row>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA56EB90-5465-464C-A6B4-04B8A3FF12E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFFE9F7-B63D-474E-A246-28FF77446984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>N-m/rad</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>second iteration of calculations - fewer coils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">third iteration of calculations - add an eighth of a coil </t>
   </si>
 </sst>
 </file>
@@ -185,6 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,7 +198,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,12 +526,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -603,10 +606,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -649,8 +652,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -665,10 +668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCADA16-F37A-4E24-B4B4-CAC4D5F5F2A3}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,14 +682,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -716,7 +719,7 @@
         <v>0.25</v>
       </c>
       <c r="E2" s="5">
-        <f>(($B$21*1000000000)*(C2/1000)^4)/(64*(F2/1000)*A2)</f>
+        <f>(($B$26*1000000000)*(C2/1000)^4)/(64*(F2/1000)*A2)</f>
         <v>4.0687607636718743</v>
       </c>
       <c r="F2">
@@ -743,7 +746,7 @@
         <v>0.25</v>
       </c>
       <c r="E3" s="5">
-        <f>(($B$21*1000000000)*(C3/1000)^4)/(64*(F3/1000)*A3)</f>
+        <f>(($B$26*1000000000)*(C3/1000)^4)/(64*(F3/1000)*A3)</f>
         <v>8.5658121340460518</v>
       </c>
       <c r="F3">
@@ -774,7 +777,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="5">
-        <f>((($B$21*1000000000)*(C5/1000)^4)/(64*A5*E5))*1000</f>
+        <f>((($B$26*1000000000)*(C5/1000)^4)/(64*A5*E5))*1000</f>
         <v>34.487739054843125</v>
       </c>
       <c r="G5" s="1">
@@ -801,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5">
-        <f>((($B$21*1000000000)*(C6/1000)^4)/(64*A6*E6))*1000</f>
+        <f>((($B$26*1000000000)*(C6/1000)^4)/(64*A6*E6))*1000</f>
         <v>33.995566906995272</v>
       </c>
       <c r="G6" s="1">
@@ -811,7 +814,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f>(($B$21*1000000000)*(C8/1000)^4)/(64*(F8/1000)*E8)</f>
+        <f>(($B$26*1000000000)*(C8/1000)^4)/(64*(F8/1000)*E8)</f>
         <v>39.648200098975394</v>
       </c>
       <c r="B8" t="s">
@@ -842,7 +845,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f>(($B$21*1000000000)*(C9/1000)^4)/(64*(F9/1000)*E9)</f>
+        <f>(($B$26*1000000000)*(C9/1000)^4)/(64*(F9/1000)*E9)</f>
         <v>18.997522683320884</v>
       </c>
       <c r="B9" t="s">
@@ -887,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="5">
-        <f>((($B$21*1000000000)*(C11/1000)^4)/(64*A11*E11))*1000</f>
+        <f>((($B$26*1000000000)*(C11/1000)^4)/(64*A11*E11))*1000</f>
         <v>32.295788561645509</v>
       </c>
       <c r="G11" s="1">
@@ -906,7 +909,7 @@
         <f>CONVERT(D12,"in","mm")</f>
         <v>5.5562500000000004</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="13">
         <f>7/32</f>
         <v>0.21875</v>
       </c>
@@ -914,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="5">
-        <f>((($B$21*1000000000)*(C12/1000)^4)/(64*A12*E12))*1000</f>
+        <f>((($B$26*1000000000)*(C12/1000)^4)/(64*A12*E12))*1000</f>
         <v>31.884123493631115</v>
       </c>
       <c r="G12" s="1">
@@ -924,7 +927,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f>(($B$21*1000000000)*(C14/1000)^4)/(64*(F14/1000)*E14)</f>
+        <f>(($B$26*1000000000)*(C14/1000)^4)/(64*(F14/1000)*E14)</f>
         <v>39.74866284510216</v>
       </c>
       <c r="B14" t="s">
@@ -953,7 +956,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f>(($B$21*1000000000)*(C15/1000)^4)/(64*(F15/1000)*E15)</f>
+        <f>(($B$26*1000000000)*(C15/1000)^4)/(64*(F15/1000)*E15)</f>
         <v>19.106590857606662</v>
       </c>
       <c r="B15" t="s">
@@ -977,14 +980,123 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>CONVERT(D17,"in","mm")</f>
+        <v>6.35</v>
+      </c>
+      <c r="D17" s="6">
+        <f>8/32</f>
+        <v>0.25</v>
+      </c>
+      <c r="E17">
+        <v>4.125</v>
+      </c>
+      <c r="F17" s="5">
+        <f>((($B$26*1000000000)*(C17/1000)^4)/(64*A17*E17))*1000</f>
+        <v>31.317128302201702</v>
+      </c>
+      <c r="G17" s="1">
+        <f>F17-C17</f>
+        <v>24.967128302201701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f>CONVERT(D18,"in","mm")</f>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="D18" s="13">
+        <f>7/32</f>
+        <v>0.21875</v>
+      </c>
+      <c r="E18">
+        <v>5.125</v>
+      </c>
+      <c r="F18" s="5">
+        <f>((($B$26*1000000000)*(C18/1000)^4)/(64*A18*E18))*1000</f>
+        <v>31.106461945005965</v>
+      </c>
+      <c r="G18" s="1">
+        <f>F18-C18</f>
+        <v>25.550211945005962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f>(($B$26*1000000000)*(C20/1000)^4)/(64*(F20/1000)*E20)</f>
+        <v>39.641934559748982</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>CONVERT(D20,"in","mm")</f>
+        <v>6.35</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E20">
+        <v>4.125</v>
+      </c>
+      <c r="F20" s="11">
+        <f>G20+C20</f>
+        <v>31.6</v>
+      </c>
+      <c r="G20" s="10">
+        <v>25.25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f>(($B$26*1000000000)*(C21/1000)^4)/(64*(F21/1000)*E21)</f>
+        <v>19.185158107692864</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <f>CONVERT(D21,"in","mm")</f>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.21875</v>
+      </c>
+      <c r="E21">
+        <v>5.125</v>
+      </c>
+      <c r="F21" s="11">
+        <f>G21+C21</f>
+        <v>30.806249999999999</v>
+      </c>
+      <c r="G21" s="10">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B26" s="8">
         <v>203.4</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>13</v>
       </c>
     </row>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haonan\Documents\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFFE9F7-B63D-474E-A246-28FF77446984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2C080-2000-43DA-ABB2-62B897173A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
+    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>N-m/rad</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">third iteration of calculations - add an eighth of a coil </t>
+  </si>
+  <si>
+    <t>22.7mm mandrel OD for springback</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -178,17 +181,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,12 +523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -606,10 +603,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="10"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -652,8 +649,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -671,7 +668,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,14 +679,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -699,7 +696,7 @@
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -824,18 +821,18 @@
         <f>CONVERT(D8,"in","mm")</f>
         <v>7.1437499999999998</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <f>9/32</f>
         <v>0.28125</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="1">
         <f>G8+C8</f>
         <v>34.793749999999996</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <f>27.65</f>
         <v>27.65</v>
       </c>
@@ -855,18 +852,18 @@
         <f>CONVERT(D9,"in","mm")</f>
         <v>6.35</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <f>1/4</f>
         <v>0.25</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="1">
         <f>G9+C9</f>
         <v>34</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <f>27.65</f>
         <v>27.65</v>
       </c>
@@ -909,7 +906,7 @@
         <f>CONVERT(D12,"in","mm")</f>
         <v>5.5562500000000004</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="6">
         <f>7/32</f>
         <v>0.21875</v>
       </c>
@@ -937,17 +934,17 @@
         <f>CONVERT(D14,"in","mm")</f>
         <v>6.35</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>0.25</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="1">
         <f>G14+C14</f>
         <v>32.5</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <v>26.15</v>
       </c>
       <c r="I14" t="s">
@@ -966,17 +963,17 @@
         <f>CONVERT(D15,"in","mm")</f>
         <v>5.5562500000000004</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>0.21875</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="1">
         <f>G15+C15</f>
         <v>31.706249999999997</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>26.15</v>
       </c>
     </row>
@@ -1018,7 +1015,7 @@
         <f>CONVERT(D18,"in","mm")</f>
         <v>5.5562500000000004</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="6">
         <f>7/32</f>
         <v>0.21875</v>
       </c>
@@ -1046,17 +1043,17 @@
         <f>CONVERT(D20,"in","mm")</f>
         <v>6.35</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>0.25</v>
       </c>
       <c r="E20">
         <v>4.125</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="1">
         <f>G20+C20</f>
         <v>31.6</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="8">
         <v>25.25</v>
       </c>
       <c r="I20" t="s">
@@ -1075,28 +1072,31 @@
         <f>CONVERT(D21,"in","mm")</f>
         <v>5.5562500000000004</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21">
         <v>0.21875</v>
       </c>
       <c r="E21">
         <v>5.125</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="1">
         <f>G21+C21</f>
         <v>30.806249999999999</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <v>25.25</v>
       </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>203.4</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haonan\Documents\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2C080-2000-43DA-ABB2-62B897173A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D933D46-FF3E-47C2-A089-63CDD0638FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>N-m/rad</t>
   </si>
@@ -113,6 +114,99 @@
   </si>
   <si>
     <t>22.7mm mandrel OD for springback</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Mass (g)</t>
+  </si>
+  <si>
+    <t>BL_012v5</t>
+  </si>
+  <si>
+    <t>medium nut</t>
+  </si>
+  <si>
+    <t>BL_002.rat</t>
+  </si>
+  <si>
+    <t>post and screw</t>
+  </si>
+  <si>
+    <t>BL_003v3</t>
+  </si>
+  <si>
+    <t>BO_025v6</t>
+  </si>
+  <si>
+    <t>6597K8</t>
+  </si>
+  <si>
+    <t>6597K19</t>
+  </si>
+  <si>
+    <t>6597K118</t>
+  </si>
+  <si>
+    <t>6597K119</t>
+  </si>
+  <si>
+    <t>BL_011j2</t>
+  </si>
+  <si>
+    <t>BL_004v4</t>
+  </si>
+  <si>
+    <t>BL_005.rat</t>
+  </si>
+  <si>
+    <t>BL_011j3</t>
+  </si>
+  <si>
+    <t>BL_006v2</t>
+  </si>
+  <si>
+    <t>BL_007v2</t>
+  </si>
+  <si>
+    <t>BL_008</t>
+  </si>
+  <si>
+    <t>BL_009</t>
+  </si>
+  <si>
+    <t>BL_010</t>
+  </si>
+  <si>
+    <t>large nut</t>
+  </si>
+  <si>
+    <t>nuts (m)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>encoder + mount small</t>
+  </si>
+  <si>
+    <t>encoder + mount large</t>
+  </si>
+  <si>
+    <t>dshaft 119mm</t>
+  </si>
+  <si>
+    <t>dshaft 80mm</t>
+  </si>
+  <si>
+    <t>dshaft 52mm</t>
+  </si>
+  <si>
+    <t>4-40 SHS 1250</t>
+  </si>
+  <si>
+    <t>4-40 SHS 0500</t>
   </si>
 </sst>
 </file>
@@ -667,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCADA16-F37A-4E24-B4B4-CAC4D5F5F2A3}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1108,4 +1202,406 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7B2F4C-D259-48ED-AC54-C1F95C4B8EE6}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2*$B$25</f>
+        <v>43.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D28" si="0">B3-C3*$B$25</f>
+        <v>21.4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>102.6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>1.7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <f>4/10</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <f>13/10</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D933D46-FF3E-47C2-A089-63CDD0638FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B30FFF-7CD4-4E05-8F58-B1240B6B4C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
+    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>N-m/rad</t>
   </si>
@@ -207,6 +207,24 @@
   </si>
   <si>
     <t>4-40 SHS 0500</t>
+  </si>
+  <si>
+    <t>limb 1</t>
+  </si>
+  <si>
+    <t>limb 2</t>
+  </si>
+  <si>
+    <t>limb 3</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>measured new leg properties</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7B2F4C-D259-48ED-AC54-C1F95C4B8EE6}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1235,7 @@
     <col min="1" max="2" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1228,7 +1246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1246,7 +1264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1257,14 +1275,14 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D28" si="0">B3-C3*$B$25</f>
+        <f t="shared" ref="D3:D24" si="0">B3-C3*$B$25</f>
         <v>21.4</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1279,7 +1297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1291,7 +1309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1305,8 +1323,14 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1323,8 +1347,17 @@
       <c r="E7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1335,8 +1368,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8">
+        <v>190.04</v>
+      </c>
+      <c r="J8">
+        <v>130.77000000000001</v>
+      </c>
+      <c r="K8">
+        <v>192.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1350,8 +1395,20 @@
       <c r="E9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>267.99700000000001</v>
+      </c>
+      <c r="J9">
+        <v>171.35</v>
+      </c>
+      <c r="K9">
+        <v>166.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1365,8 +1422,20 @@
       <c r="E10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>162.02000000000001</v>
+      </c>
+      <c r="J10">
+        <v>53.49</v>
+      </c>
+      <c r="K10">
+        <v>35.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1384,7 +1453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1402,7 +1471,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1417,7 +1486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1435,7 +1504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1450,7 +1519,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1602,6 +1671,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B30FFF-7CD4-4E05-8F58-B1240B6B4C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FAE655-43F4-46F7-BB19-E0B81BE0D6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="new spring rate" sheetId="4" r:id="rId2"/>
+    <sheet name="old spring rate" sheetId="2" r:id="rId3"/>
+    <sheet name="mass properties" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>N-m/rad</t>
   </si>
@@ -225,14 +226,33 @@
   </si>
   <si>
     <t>measured new leg properties</t>
+  </si>
+  <si>
+    <t>K118 adjusted hip spring</t>
+  </si>
+  <si>
+    <t>K119 hip spring</t>
+  </si>
+  <si>
+    <t>ankle spring</t>
+  </si>
+  <si>
+    <t>mandrel OD takes spring-back into consideration</t>
+  </si>
+  <si>
+    <t>mean coil diameter and spring rate back calculated from measured mandrel OD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mandrel OD coefficients:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -243,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +288,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -281,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -307,12 +333,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -776,11 +815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCADA16-F37A-4E24-B4B4-CAC4D5F5F2A3}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE45467-C099-4729-88DC-752A8F0EA990}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,6 +852,347 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>4.74</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <f>CONVERT(D2,"in","mm")</f>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="D2" s="16">
+        <f>7/32</f>
+        <v>0.21875</v>
+      </c>
+      <c r="E2" s="17">
+        <f>(($B$16*1000000000)*(C2/1000)^4)/(64*(F2/1000)*A2)</f>
+        <v>20.642932898494493</v>
+      </c>
+      <c r="F2" s="15">
+        <f>25.4*1+C2</f>
+        <v>30.956249999999997</v>
+      </c>
+      <c r="G2" s="16">
+        <f>(-0.01245*(F2/C2)+0.98425)*F2-C2</f>
+        <v>22.765180892857138</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13.22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <f>CONVERT(D3,"in","mm")</f>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="D3" s="13">
+        <f>7/32</f>
+        <v>0.21875</v>
+      </c>
+      <c r="E3" s="5">
+        <f>(($B$16*1000000000)*(C3/1000)^4)/(64*(F3/1000)*A3)</f>
+        <v>5.2483187671787821</v>
+      </c>
+      <c r="F3">
+        <f>25.4*1.5+C3</f>
+        <v>43.656249999999993</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G4" si="0">(-0.01245*(F3/C3)+0.98425)*F3-C3</f>
+        <v>33.141897321428566</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <f>CONVERT(D4,"in","mm")</f>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="D4" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <f>(($B$16*1000000000)*(C4/1000)^4)/(64*(F4/1000)*A4)</f>
+        <v>5.651056616210937</v>
+      </c>
+      <c r="F4">
+        <f>25.4/2+C4</f>
+        <v>14.2875</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="0"/>
+        <v>10.874057499999999</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>4.74</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <f>CONVERT(D6,"in","mm")</f>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="D6" s="16">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4.125</v>
+      </c>
+      <c r="F6" s="17">
+        <f>((($B$16*1000000000)*(C6/1000)^4)/(64*A6*E6))*1000</f>
+        <v>16.517472733228743</v>
+      </c>
+      <c r="G6" s="16">
+        <f>(-0.01245*(F6/C6)+0.98425)*F6-C6</f>
+        <v>12.012497349211952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13.22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <f>CONVERT(D7,"in","mm")</f>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="D7" s="13">
+        <f>7/32</f>
+        <v>0.21875</v>
+      </c>
+      <c r="E7">
+        <v>5.125</v>
+      </c>
+      <c r="F7" s="5">
+        <f>((($B$16*1000000000)*(C7/1000)^4)/(64*A7*E7))*1000</f>
+        <v>44.706715352126579</v>
+      </c>
+      <c r="G7" s="14">
+        <f>(-0.01245*(F7/C7)+0.98425)*F7-C7</f>
+        <v>33.967829217533584</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <f>CONVERT(D8,"in","mm")</f>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E8">
+        <v>5.125</v>
+      </c>
+      <c r="F8" s="5">
+        <f>((($B$16*1000000000)*(C8/1000)^4)/(64*A8*E8))*1000</f>
+        <v>15.754043200802686</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" ref="G8" si="1">(-0.01245*(F8/C8)+0.98425)*F8-C8</f>
+        <v>11.97198302303519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <f>(($B$16*1000000000)*(C10/1000)^4)/(64*(F10/1000)*E10)</f>
+        <v>4.6952216345129987</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <f>CONVERT(D10,"in","mm")</f>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.125</v>
+      </c>
+      <c r="E10" s="15">
+        <v>4.125</v>
+      </c>
+      <c r="F10" s="17">
+        <f>G10+C10</f>
+        <v>16.675000000000001</v>
+      </c>
+      <c r="G10" s="17">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>(($B$16*1000000000)*(C11/1000)^4)/(64*(F11/1000)*E11)</f>
+        <v>13.594103261114698</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <f>CONVERT(D11,"in","mm")</f>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.21875</v>
+      </c>
+      <c r="E11">
+        <v>5.125</v>
+      </c>
+      <c r="F11" s="1">
+        <f>((-($B$18*C11)/$B$17)-SQRT((-($B$18*C11)/$B$17)^2-(4*(C11*(G11+C11))/-$B$17)))/2</f>
+        <v>43.476407792613031</v>
+      </c>
+      <c r="G11" s="8">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>(($B$16*1000000000)*(C12/1000)^4)/(64*(F12/1000)*E12)</f>
+        <v>0.23568800929575873</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <f>CONVERT(D12,"in","mm")</f>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="D12" s="14">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.125</v>
+      </c>
+      <c r="F12" s="1">
+        <f>((-($B$18*C12)/$B$17)-SQRT((-($B$18*C12)/$B$17)^2-(4*(C12*(G12+C12))/-$B$17)))/2</f>
+        <v>16.710696534664763</v>
+      </c>
+      <c r="G12" s="8">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>203.4</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>-1.2449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18">
+        <v>0.98424999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCADA16-F37A-4E24-B4B4-CAC4D5F5F2A3}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="3" max="7" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40</v>
       </c>
@@ -1222,12 +1602,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7B2F4C-D259-48ED-AC54-C1F95C4B8EE6}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FAE655-43F4-46F7-BB19-E0B81BE0D6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC53C00-1CF9-49CE-B1A3-F21E90C13803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
@@ -252,7 +252,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -290,7 +290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -324,6 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,14 +334,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="13" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="13" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,12 +677,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -754,10 +757,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -800,8 +803,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -819,7 +822,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,14 +833,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -852,79 +855,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="6">
         <v>4.74</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
         <f>CONVERT(D2,"in","mm")</f>
-        <v>5.5562500000000004</v>
-      </c>
-      <c r="D2" s="16">
-        <f>7/32</f>
-        <v>0.21875</v>
-      </c>
-      <c r="E2" s="17">
+        <v>3.96875</v>
+      </c>
+      <c r="D2" s="20">
+        <f>5/32</f>
+        <v>0.15625</v>
+      </c>
+      <c r="E2" s="5">
         <f>(($B$16*1000000000)*(C2/1000)^4)/(64*(F2/1000)*A2)</f>
-        <v>20.642932898494493</v>
-      </c>
-      <c r="F2" s="15">
-        <f>25.4*1+C2</f>
-        <v>30.956249999999997</v>
-      </c>
-      <c r="G2" s="16">
+        <v>4.6570548327160282</v>
+      </c>
+      <c r="F2">
+        <f>25.4*1.25+C2</f>
+        <v>35.71875</v>
+      </c>
+      <c r="G2" s="10">
         <f>(-0.01245*(F2/C2)+0.98425)*F2-C2</f>
-        <v>22.765180892857138</v>
+        <v>27.185143749999998</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>13.22</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <f>CONVERT(D3,"in","mm")</f>
-        <v>5.5562500000000004</v>
-      </c>
-      <c r="D3" s="13">
-        <f>7/32</f>
-        <v>0.21875</v>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="D3" s="20">
+        <f>6/32</f>
+        <v>0.1875</v>
       </c>
       <c r="E3" s="5">
         <f>(($B$16*1000000000)*(C3/1000)^4)/(64*(F3/1000)*A3)</f>
-        <v>5.2483187671787821</v>
+        <v>4.1002670129168077</v>
       </c>
       <c r="F3">
-        <f>25.4*1.5+C3</f>
-        <v>43.656249999999993</v>
-      </c>
-      <c r="G3" s="14">
-        <f t="shared" ref="G3:G4" si="0">(-0.01245*(F3/C3)+0.98425)*F3-C3</f>
-        <v>33.141897321428566</v>
+        <f>25.4*1+C3</f>
+        <v>30.162499999999998</v>
+      </c>
+      <c r="G3" s="10">
+        <f>(-0.01245*(F3/C3)+0.98425)*F3-C3</f>
+        <v>22.5466275</v>
       </c>
       <c r="I3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>0.25</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <f>CONVERT(D4,"in","mm")</f>
         <v>1.5874999999999999</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="20">
         <v>6.25E-2</v>
       </c>
       <c r="E4" s="5">
@@ -935,8 +938,8 @@
         <f>25.4/2+C4</f>
         <v>14.2875</v>
       </c>
-      <c r="G4" s="14">
-        <f t="shared" si="0"/>
+      <c r="G4" s="10">
+        <f>(-0.01245*(F4/C4)+0.98425)*F4-C4</f>
         <v>10.874057499999999</v>
       </c>
       <c r="I4" t="s">
@@ -944,149 +947,154 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="18">
         <v>4.74</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
-        <f>CONVERT(D6,"in","mm")</f>
-        <v>3.1749999999999998</v>
-      </c>
-      <c r="D6" s="16">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17">
+        <f>C2</f>
+        <v>3.96875</v>
+      </c>
+      <c r="D6" s="21">
+        <f>D2</f>
+        <v>0.15625</v>
+      </c>
+      <c r="E6" s="6">
         <v>4.125</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="5">
         <f>((($B$16*1000000000)*(C6/1000)^4)/(64*A6*E6))*1000</f>
-        <v>16.517472733228743</v>
+        <v>40.325861165109245</v>
       </c>
       <c r="G6" s="16">
         <f>(-0.01245*(F6/C6)+0.98425)*F6-C6</f>
-        <v>12.012497349211952</v>
+        <v>30.620654825324642</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="18">
         <v>13.22</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="14">
-        <f>CONVERT(D7,"in","mm")</f>
-        <v>5.5562500000000004</v>
-      </c>
-      <c r="D7" s="13">
-        <f>7/32</f>
-        <v>0.21875</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="17">
+        <f>C3</f>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="D7" s="21">
+        <f>D3</f>
+        <v>0.1875</v>
+      </c>
+      <c r="E7" s="6">
         <v>5.125</v>
       </c>
       <c r="F7" s="5">
         <f>((($B$16*1000000000)*(C7/1000)^4)/(64*A7*E7))*1000</f>
-        <v>44.706715352126579</v>
-      </c>
-      <c r="G7" s="14">
+        <v>24.131571468703065</v>
+      </c>
+      <c r="G7" s="16">
         <f>(-0.01245*(F7/C7)+0.98425)*F7-C7</f>
-        <v>33.967829217533584</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
+        <v>17.466680555123677</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="18">
         <v>0.25</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="14">
-        <f>CONVERT(D8,"in","mm")</f>
+      <c r="C8" s="17">
+        <f>C4</f>
         <v>1.5874999999999999</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="21">
+        <f>D4</f>
         <v>6.25E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>5.125</v>
       </c>
       <c r="F8" s="5">
         <f>((($B$16*1000000000)*(C8/1000)^4)/(64*A8*E8))*1000</f>
         <v>15.754043200802686</v>
       </c>
-      <c r="G8" s="14">
-        <f t="shared" ref="G8" si="1">(-0.01245*(F8/C8)+0.98425)*F8-C8</f>
+      <c r="G8" s="16">
+        <f>(-0.01245*(F8/C8)+0.98425)*F8-C8</f>
         <v>11.97198302303519</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="5">
         <f>(($B$16*1000000000)*(C10/1000)^4)/(64*(F10/1000)*E10)</f>
-        <v>4.6952216345129987</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <f>CONVERT(D10,"in","mm")</f>
-        <v>3.1749999999999998</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.125</v>
-      </c>
-      <c r="E10" s="15">
+        <v>4.8415345610606506</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <f>C6</f>
+        <v>3.96875</v>
+      </c>
+      <c r="D10" s="21">
+        <f>D6</f>
+        <v>0.15625</v>
+      </c>
+      <c r="E10" s="18">
+        <f>E6</f>
         <v>4.125</v>
       </c>
-      <c r="F10" s="17">
-        <f>G10+C10</f>
-        <v>16.675000000000001</v>
-      </c>
-      <c r="G10" s="17">
-        <v>13.5</v>
+      <c r="F10" s="5">
+        <f>((-($B$18*C10)/$B$17)-SQRT((-($B$18*C10)/$B$17)^2-(4*(C10*(G10+C10))/-$B$17)))/2</f>
+        <v>39.480164710575394</v>
+      </c>
+      <c r="G10" s="8">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f>(($B$16*1000000000)*(C11/1000)^4)/(64*(F11/1000)*E11)</f>
-        <v>13.594103261114698</v>
+        <v>13.524300330474267</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="14">
-        <f>CONVERT(D11,"in","mm")</f>
-        <v>5.5562500000000004</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.21875</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="17">
+        <f>C7</f>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" ref="D11:E12" si="0">D7</f>
+        <v>0.1875</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
         <v>5.125</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <f>((-($B$18*C11)/$B$17)-SQRT((-($B$18*C11)/$B$17)^2-(4*(C11*(G11+C11))/-$B$17)))/2</f>
-        <v>43.476407792613031</v>
+        <v>23.588604735241574</v>
       </c>
       <c r="G11" s="8">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1097,17 +1105,19 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="14">
-        <f>CONVERT(D12,"in","mm")</f>
+      <c r="C12" s="17">
+        <f>C8</f>
         <v>1.5874999999999999</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="21">
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
         <v>5.125</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <f>((-($B$18*C12)/$B$17)-SQRT((-($B$18*C12)/$B$17)^2-(4*(C12*(G12+C12))/-$B$17)))/2</f>
         <v>16.710696534664763</v>
       </c>
@@ -1116,8 +1126,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -1131,7 +1141,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B17">
@@ -1139,7 +1149,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="14"/>
       <c r="B18">
         <v>0.98424999999999996</v>
       </c>
@@ -1171,14 +1181,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1703,12 +1713,12 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC53C00-1CF9-49CE-B1A3-F21E90C13803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40617605-E26D-4755-B8C7-A46DAD804A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="new spring rate" sheetId="4" r:id="rId2"/>
-    <sheet name="old spring rate" sheetId="2" r:id="rId3"/>
-    <sheet name="mass properties" sheetId="3" r:id="rId4"/>
+    <sheet name="new spring rate (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="new spring rate" sheetId="4" r:id="rId3"/>
+    <sheet name="old spring rate" sheetId="2" r:id="rId4"/>
+    <sheet name="mass properties" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
   <si>
     <t>N-m/rad</t>
   </si>
@@ -244,15 +245,34 @@
   </si>
   <si>
     <t xml:space="preserve"> mandrel OD coefficients:</t>
+  </si>
+  <si>
+    <t>K118 hip spring</t>
+  </si>
+  <si>
+    <t>K119 adjusted hip spring</t>
+  </si>
+  <si>
+    <t>K118 knee spring</t>
+  </si>
+  <si>
+    <t>K119 adjusted knee spring</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>all hip springs need to have 1/8 coil past a full turn for proper assembly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -307,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -325,6 +345,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="13" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="13" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,13 +362,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="13" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="13" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,12 +699,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -757,10 +779,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="16"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -803,8 +825,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -818,11 +840,749 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8781DA6-A82C-4E0B-8128-7A6EA08A4D8F}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="4" max="8" width="29.85546875" customWidth="1"/>
+    <col min="10" max="10" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <f>CONVERT(E2,"in","mm")</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.15625</v>
+      </c>
+      <c r="F2" s="5">
+        <f>(($C$28*1000000000)*(D2/1000)^4)/(64*(G2/1000)*B2)</f>
+        <v>4.265592252574681</v>
+      </c>
+      <c r="G2" s="6">
+        <f>25.4*1.25+D2</f>
+        <v>35.71875</v>
+      </c>
+      <c r="H2" s="10">
+        <f>IFERROR(($C$29*(G2/D2)+$C$30)*G2-D2,"")</f>
+        <v>27.185143749999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4.7408000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D8" si="0">CONVERT(E3,"in","mm")</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E3" s="14">
+        <f>5/32</f>
+        <v>0.15625</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F8" si="1">(($C$28*1000000000)*(D3/1000)^4)/(64*(G3/1000)*B3)</f>
+        <v>4.65626896453636</v>
+      </c>
+      <c r="G3" s="6">
+        <f>25.4*1.25+D3</f>
+        <v>35.71875</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H8" si="2">IFERROR(($C$29*(G3/D3)+$C$30)*G3-D3,"")</f>
+        <v>27.185143749999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8">
+        <v>13.224299999999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.21875</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>6.1396526085935168</v>
+      </c>
+      <c r="G4" s="6">
+        <f>25.4*1.25+D4</f>
+        <v>37.306249999999999</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="2"/>
+        <v>28.043890535714283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8">
+        <v>6.8902999999999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.1875</v>
+      </c>
+      <c r="F5" s="5">
+        <f>(($C$28*1000000000)*(D5/1000)^4)/(64*(G5/1000)*B5)</f>
+        <v>7.8669332120169209</v>
+      </c>
+      <c r="G5" s="6">
+        <f>25.4*1+D5</f>
+        <v>30.162499999999998</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="2"/>
+        <v>22.5466275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.024</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>3.96875</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.15625</v>
+      </c>
+      <c r="F6" s="5">
+        <f>(($C$28*1000000000)*(D6/1000)^4)/(64*(G6/1000)*B6)</f>
+        <v>6.6717921915690237</v>
+      </c>
+      <c r="G6" s="21">
+        <f>25.4+D6</f>
+        <v>29.368749999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>22.231699249999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1.5674999999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>7.210279574112838</v>
+      </c>
+      <c r="G7" s="21">
+        <f>25.4+D7</f>
+        <v>28.574999999999999</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>21.748114999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.24762499999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="E8" s="14">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7052565534688924</v>
+      </c>
+      <c r="G8" s="6">
+        <f>25.4*0.5+D8</f>
+        <v>14.2875</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>10.874057499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="20">
+        <f>B2</f>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <f>D2</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E10" s="15">
+        <f>E2</f>
+        <v>0.15625</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4.125</v>
+      </c>
+      <c r="G10" s="5">
+        <f>IFERROR(((($C$28*1000000000)*(D10/1000)^4)/(64*B10*F10))*1000,"")</f>
+        <v>36.936151096158035</v>
+      </c>
+      <c r="H10" s="11">
+        <f>IFERROR((-0.01245*(G10/D10)+0.98425)*G10-D10,"")</f>
+        <v>28.105901942324181</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="20">
+        <f t="shared" ref="B11:B16" si="3">B3</f>
+        <v>4.7408000000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" ref="D11:E16" si="4">D3</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5.125</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11:G16" si="5">IFERROR(((($C$28*1000000000)*(D11/1000)^4)/(64*B11*F11))*1000,"")</f>
+        <v>32.451923332104016</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" ref="H11:H16" si="6">IFERROR((-0.01245*(G11/D11)+0.98425)*G11-D11,"")</f>
+        <v>24.668386819494415</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="20">
+        <f t="shared" si="3"/>
+        <v>13.224299999999999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="4"/>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="4"/>
+        <v>0.21875</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6.125</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="5"/>
+        <v>37.395496347647651</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="6"/>
+        <v>28.116792691873933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="20">
+        <f t="shared" si="3"/>
+        <v>6.8902999999999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="4"/>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7.125</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="5"/>
+        <v>33.303350597538298</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="6"/>
+        <v>25.116908892875195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="20">
+        <f t="shared" si="3"/>
+        <v>4.024</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="4"/>
+        <v>3.96875</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F14" s="22">
+        <f>6+1/6</f>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="5"/>
+        <v>31.774410312347477</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="6"/>
+        <v>24.138048946480367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5674999999999999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="4"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="F15" s="22">
+        <f>7+1/6</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="5"/>
+        <v>28.748893790270838</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="6"/>
+        <v>21.880181789500778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="20">
+        <f>B8</f>
+        <v>0.24762499999999998</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="4"/>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F16" s="22">
+        <f>5+1/6</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="5"/>
+        <v>15.776874775681314</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="6"/>
+        <v>11.988809166651111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f>IF(ISBLANK(H18),"",IFERROR((($C$28*1000000000)*(D18/1000)^4)/(64*(G18/1000)*F18),""))</f>
+        <v/>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f>D10</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E18" s="15">
+        <f>E10</f>
+        <v>0.15625</v>
+      </c>
+      <c r="F18" s="13">
+        <f>F10</f>
+        <v>4.125</v>
+      </c>
+      <c r="G18" s="5">
+        <f>((-($C$30*D18)/$C$29)-SQRT((-($C$30*D18)/$C$29)^2-(4*(D18*(H18+D18))/-$C$29)))/2</f>
+        <v>4.0854555575487268</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" ref="B19:B24" si="7">IFERROR((($C$28*1000000000)*(D19/1000)^4)/(64*(G19/1000)*F19),"")</f>
+        <v>3.8968448906097919</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:F24" si="8">D11</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="8"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="8"/>
+        <v>5.125</v>
+      </c>
+      <c r="G19" s="5">
+        <f>((-($C$30*D19)/$C$29)-SQRT((-($C$30*D19)/$C$29)^2-(4*(D19*(H19+D19))/-$C$29)))/2</f>
+        <v>39.480164710575394</v>
+      </c>
+      <c r="H19" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="7"/>
+        <v>20.387322069660314</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="8"/>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="8"/>
+        <v>0.21875</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="8"/>
+        <v>6.125</v>
+      </c>
+      <c r="G20" s="5">
+        <f>((-($C$30*D20)/$C$29)-SQRT((-($C$30*D20)/$C$29)^2-(4*(D20*(H20+D20))/-$C$29)))/2</f>
+        <v>24.256705253415191</v>
+      </c>
+      <c r="H20" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="7"/>
+        <v>46.806301318960791</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="8"/>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="8"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="8"/>
+        <v>7.125</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" ref="G21:G24" si="9">((-($C$30*D21)/$C$29)-SQRT((-($C$30*D21)/$C$29)^2-(4*(D21*(H21+D21))/-$C$29)))/2</f>
+        <v>4.9025466690584665</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="7"/>
+        <v>31.296443027176725</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="8"/>
+        <v>3.96875</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="8"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F22" s="23">
+        <f t="shared" si="8"/>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="9"/>
+        <v>4.0854555575487268</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="7"/>
+        <v>13.787902714112436</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="8"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="8"/>
+        <v>0.125</v>
+      </c>
+      <c r="F23" s="23">
+        <f t="shared" si="8"/>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="9"/>
+        <v>3.2683644460389871</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="7"/>
+        <v>0.23378729954337357</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="8"/>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F24" s="23">
+        <f t="shared" si="8"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="9"/>
+        <v>16.710696534664763</v>
+      </c>
+      <c r="H24" s="8">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7">
+        <v>203.4</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>-1.2449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30">
+        <v>0.98424999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B29:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE45467-C099-4729-88DC-752A8F0EA990}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,14 +1593,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -858,14 +1618,14 @@
       <c r="A2" s="6">
         <v>4.74</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
         <f>CONVERT(D2,"in","mm")</f>
         <v>3.96875</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="14">
         <f>5/32</f>
         <v>0.15625</v>
       </c>
@@ -892,11 +1652,11 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <f>CONVERT(D3,"in","mm")</f>
         <v>4.7625000000000002</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="14">
         <f>6/32</f>
         <v>0.1875</v>
       </c>
@@ -923,11 +1683,11 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="10">
         <f>CONVERT(D4,"in","mm")</f>
         <v>1.5874999999999999</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="14">
         <v>6.25E-2</v>
       </c>
       <c r="E4" s="5">
@@ -951,18 +1711,18 @@
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="13">
         <v>4.74</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17">
-        <f>C2</f>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" ref="C6:D8" si="0">C2</f>
         <v>3.96875</v>
       </c>
-      <c r="D6" s="21">
-        <f>D2</f>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
         <v>0.15625</v>
       </c>
       <c r="E6" s="6">
@@ -972,7 +1732,7 @@
         <f>((($B$16*1000000000)*(C6/1000)^4)/(64*A6*E6))*1000</f>
         <v>40.325861165109245</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <f>(-0.01245*(F6/C6)+0.98425)*F6-C6</f>
         <v>30.620654825324642</v>
       </c>
@@ -981,18 +1741,18 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="13">
         <v>13.22</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17">
-        <f>C3</f>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
         <v>4.7625000000000002</v>
       </c>
-      <c r="D7" s="21">
-        <f>D3</f>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
       <c r="E7" s="6">
@@ -1002,24 +1762,24 @@
         <f>((($B$16*1000000000)*(C7/1000)^4)/(64*A7*E7))*1000</f>
         <v>24.131571468703065</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <f>(-0.01245*(F7/C7)+0.98425)*F7-C7</f>
         <v>17.466680555123677</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="13">
         <v>0.25</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="17">
-        <f>C4</f>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
         <v>1.5874999999999999</v>
       </c>
-      <c r="D8" s="21">
-        <f>D4</f>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
       <c r="E8" s="6">
@@ -1029,7 +1789,7 @@
         <f>((($B$16*1000000000)*(C8/1000)^4)/(64*A8*E8))*1000</f>
         <v>15.754043200802686</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="11">
         <f>(-0.01245*(F8/C8)+0.98425)*F8-C8</f>
         <v>11.97198302303519</v>
       </c>
@@ -1046,15 +1806,15 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="12">
         <f>C6</f>
         <v>3.96875</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="15">
         <f>D6</f>
         <v>0.15625</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="13">
         <f>E6</f>
         <v>4.125</v>
       </c>
@@ -1077,16 +1837,16 @@
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <f>C7</f>
         <v>4.7625000000000002</v>
       </c>
-      <c r="D11" s="21">
-        <f t="shared" ref="D11:E12" si="0">D7</f>
+      <c r="D11" s="15">
+        <f t="shared" ref="D11:E12" si="1">D7</f>
         <v>0.1875</v>
       </c>
-      <c r="E11" s="18">
-        <f t="shared" si="0"/>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
         <v>5.125</v>
       </c>
       <c r="F11" s="5">
@@ -1105,16 +1865,16 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="12">
         <f>C8</f>
         <v>1.5874999999999999</v>
       </c>
-      <c r="D12" s="21">
-        <f t="shared" si="0"/>
+      <c r="D12" s="15">
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E12" s="18">
-        <f t="shared" si="0"/>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
         <v>5.125</v>
       </c>
       <c r="F12" s="5">
@@ -1141,7 +1901,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B17">
@@ -1149,7 +1909,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="19"/>
       <c r="B18">
         <v>0.98424999999999996</v>
       </c>
@@ -1165,7 +1925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCADA16-F37A-4E24-B4B4-CAC4D5F5F2A3}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -1181,14 +1941,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1612,7 +2372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7B2F4C-D259-48ED-AC54-C1F95C4B8EE6}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -1713,12 +2473,12 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40617605-E26D-4755-B8C7-A46DAD804A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B356D8-BFA4-45F5-879F-B62E3FD7FF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="new spring rate (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="new spring rate" sheetId="4" r:id="rId3"/>
-    <sheet name="old spring rate" sheetId="2" r:id="rId4"/>
-    <sheet name="mass properties" sheetId="3" r:id="rId5"/>
+    <sheet name="new spring rate (3)" sheetId="6" r:id="rId2"/>
+    <sheet name="new spring rate (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="new spring rate" sheetId="4" r:id="rId4"/>
+    <sheet name="old spring rate" sheetId="2" r:id="rId5"/>
+    <sheet name="mass properties" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="74">
   <si>
     <t>N-m/rad</t>
   </si>
@@ -272,7 +274,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -350,6 +352,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="13" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="13" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,10 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,12 +701,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -779,10 +781,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="20"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -825,8 +827,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -840,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8781DA6-A82C-4E0B-8128-7A6EA08A4D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22899915-58C4-489A-B066-2B0AFA55DBE9}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,14 +861,14 @@
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
@@ -953,22 +955,21 @@
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
-        <v>5.5562500000000004</v>
+        <v>4.7625000000000002</v>
       </c>
       <c r="E4" s="14">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>6.1396526085935168</v>
+        <v>3.5324025704483502</v>
       </c>
       <c r="G4" s="6">
-        <f>25.4*1.25+D4</f>
-        <v>37.306249999999999</v>
+        <v>35</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="2"/>
-        <v>28.043890535714283</v>
+        <v>26.483887795275589</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1022,7 +1023,7 @@
         <f>(($C$28*1000000000)*(D6/1000)^4)/(64*(G6/1000)*B6)</f>
         <v>6.6717921915690237</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="17">
         <f>25.4+D6</f>
         <v>29.368749999999999</v>
       </c>
@@ -1052,7 +1053,7 @@
         <f t="shared" si="1"/>
         <v>7.210279574112838</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <f>25.4+D7</f>
         <v>28.574999999999999</v>
       </c>
@@ -1099,8 +1100,8 @@
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="20">
-        <f>B2</f>
+      <c r="B10" s="16">
+        <f t="shared" ref="B10:B16" si="3">B2</f>
         <v>5.1749999999999998</v>
       </c>
       <c r="C10" t="s">
@@ -1133,8 +1134,8 @@
       <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="20">
-        <f t="shared" ref="B11:B16" si="3">B3</f>
+      <c r="B11" s="16">
+        <f t="shared" si="3"/>
         <v>4.7408000000000001</v>
       </c>
       <c r="C11" t="s">
@@ -1167,7 +1168,7 @@
       <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <f t="shared" si="3"/>
         <v>13.224299999999999</v>
       </c>
@@ -1176,29 +1177,29 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="4"/>
-        <v>5.5562500000000004</v>
+        <v>4.7625000000000002</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" si="4"/>
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="F12" s="6">
-        <v>6.125</v>
+        <v>3.125</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>37.395496347647651</v>
+        <v>39.562908789021527</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="6"/>
-        <v>28.116792691873933</v>
+        <v>30.085526947140256</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <f t="shared" si="3"/>
         <v>6.8902999999999999</v>
       </c>
@@ -1229,7 +1230,7 @@
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <f t="shared" si="3"/>
         <v>4.024</v>
       </c>
@@ -1244,7 +1245,7 @@
         <f t="shared" si="4"/>
         <v>0.15625</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="18">
         <f>6+1/6</f>
         <v>6.166666666666667</v>
       </c>
@@ -1261,7 +1262,7 @@
       <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <f t="shared" si="3"/>
         <v>1.5674999999999999</v>
       </c>
@@ -1276,7 +1277,7 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="18">
         <f>7+1/6</f>
         <v>7.166666666666667</v>
       </c>
@@ -1293,8 +1294,8 @@
       <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="20">
-        <f>B8</f>
+      <c r="B16" s="16">
+        <f t="shared" si="3"/>
         <v>0.24762499999999998</v>
       </c>
       <c r="C16" t="s">
@@ -1308,7 +1309,7 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="18">
         <f>5+1/6</f>
         <v>5.166666666666667</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>4.125</v>
       </c>
       <c r="G18" s="5">
-        <f>((-($C$30*D18)/$C$29)-SQRT((-($C$30*D18)/$C$29)^2-(4*(D18*(H18+D18))/-$C$29)))/2</f>
+        <f t="shared" ref="G18:G24" si="7">((-($C$30*D18)/$C$29)-SQRT((-($C$30*D18)/$C$29)^2-(4*(D18*(H18+D18))/-$C$29)))/2</f>
         <v>4.0854555575487268</v>
       </c>
       <c r="H18" s="8"/>
@@ -1362,26 +1363,26 @@
         <v>62</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" ref="B19:B24" si="7">IFERROR((($C$28*1000000000)*(D19/1000)^4)/(64*(G19/1000)*F19),"")</f>
+        <f t="shared" ref="B19:B24" si="8">IFERROR((($C$28*1000000000)*(D19/1000)^4)/(64*(G19/1000)*F19),"")</f>
         <v>3.8968448906097919</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" ref="D19:F24" si="8">D11</f>
+        <f t="shared" ref="D19:F24" si="9">D11</f>
         <v>3.96875</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15625</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.125</v>
       </c>
       <c r="G19" s="5">
-        <f>((-($C$30*D19)/$C$29)-SQRT((-($C$30*D19)/$C$29)^2-(4*(D19*(H19+D19))/-$C$29)))/2</f>
+        <f t="shared" si="7"/>
         <v>39.480164710575394</v>
       </c>
       <c r="H19" s="8">
@@ -1393,30 +1394,30 @@
         <v>63</v>
       </c>
       <c r="B20" s="5">
+        <f t="shared" si="8"/>
+        <v>12.066120801296199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="9"/>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F20" s="13">
+        <f>F12</f>
+        <v>3.125</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="7"/>
-        <v>20.387322069660314</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="8"/>
-        <v>5.5562500000000004</v>
-      </c>
-      <c r="E20" s="15">
-        <f t="shared" si="8"/>
-        <v>0.21875</v>
-      </c>
-      <c r="F20" s="13">
-        <f t="shared" si="8"/>
-        <v>6.125</v>
-      </c>
-      <c r="G20" s="5">
-        <f>((-($C$30*D20)/$C$29)-SQRT((-($C$30*D20)/$C$29)^2-(4*(D20*(H20+D20))/-$C$29)))/2</f>
-        <v>24.256705253415191</v>
+        <v>43.360395881537471</v>
       </c>
       <c r="H20" s="8">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1424,26 +1425,26 @@
         <v>69</v>
       </c>
       <c r="B21" s="5">
+        <f t="shared" si="8"/>
+        <v>46.806301318960791</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="9"/>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="9"/>
+        <v>7.125</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="7"/>
-        <v>46.806301318960791</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <f t="shared" si="8"/>
-        <v>4.7625000000000002</v>
-      </c>
-      <c r="E21" s="15">
-        <f t="shared" si="8"/>
-        <v>0.1875</v>
-      </c>
-      <c r="F21" s="13">
-        <f t="shared" si="8"/>
-        <v>7.125</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" ref="G21:G24" si="9">((-($C$30*D21)/$C$29)-SQRT((-($C$30*D21)/$C$29)^2-(4*(D21*(H21+D21))/-$C$29)))/2</f>
         <v>4.9025466690584665</v>
       </c>
       <c r="H21" s="8"/>
@@ -1453,26 +1454,26 @@
         <v>70</v>
       </c>
       <c r="B22" s="5">
+        <f t="shared" si="8"/>
+        <v>31.296443027176725</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="9"/>
+        <v>3.96875</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="9"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="9"/>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="7"/>
-        <v>31.296443027176725</v>
-      </c>
-      <c r="C22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="8"/>
-        <v>3.96875</v>
-      </c>
-      <c r="E22" s="15">
-        <f t="shared" si="8"/>
-        <v>0.15625</v>
-      </c>
-      <c r="F22" s="23">
-        <f t="shared" si="8"/>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="9"/>
         <v>4.0854555575487268</v>
       </c>
       <c r="H22" s="8"/>
@@ -1482,26 +1483,26 @@
         <v>71</v>
       </c>
       <c r="B23" s="5">
+        <f t="shared" si="8"/>
+        <v>13.787902714112436</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="9"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="9"/>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="7"/>
-        <v>13.787902714112436</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" si="8"/>
-        <v>3.1749999999999998</v>
-      </c>
-      <c r="E23" s="15">
-        <f t="shared" si="8"/>
-        <v>0.125</v>
-      </c>
-      <c r="F23" s="23">
-        <f t="shared" si="8"/>
-        <v>7.166666666666667</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="9"/>
         <v>3.2683644460389871</v>
       </c>
       <c r="H23" s="8"/>
@@ -1511,26 +1512,26 @@
         <v>64</v>
       </c>
       <c r="B24" s="5">
+        <f t="shared" si="8"/>
+        <v>0.23378729954337357</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="9"/>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="9"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="7"/>
-        <v>0.23378729954337357</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="12">
-        <f t="shared" si="8"/>
-        <v>1.5874999999999999</v>
-      </c>
-      <c r="E24" s="15">
-        <f t="shared" si="8"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="F24" s="23">
-        <f t="shared" si="8"/>
-        <v>5.166666666666667</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="9"/>
         <v>16.710696534664763</v>
       </c>
       <c r="H24" s="8">
@@ -1553,7 +1554,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C29">
@@ -1561,7 +1562,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
+      <c r="B30" s="23"/>
       <c r="C30">
         <v>0.98424999999999996</v>
       </c>
@@ -1578,11 +1579,749 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8781DA6-A82C-4E0B-8128-7A6EA08A4D8F}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="4" max="8" width="29.85546875" customWidth="1"/>
+    <col min="10" max="10" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <f>CONVERT(E2,"in","mm")</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.15625</v>
+      </c>
+      <c r="F2" s="5">
+        <f>(($C$28*1000000000)*(D2/1000)^4)/(64*(G2/1000)*B2)</f>
+        <v>4.265592252574681</v>
+      </c>
+      <c r="G2" s="6">
+        <f>25.4*1.25+D2</f>
+        <v>35.71875</v>
+      </c>
+      <c r="H2" s="10">
+        <f>IFERROR(($C$29*(G2/D2)+$C$30)*G2-D2,"")</f>
+        <v>27.185143749999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4.7408000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D8" si="0">CONVERT(E3,"in","mm")</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E3" s="14">
+        <f>5/32</f>
+        <v>0.15625</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F8" si="1">(($C$28*1000000000)*(D3/1000)^4)/(64*(G3/1000)*B3)</f>
+        <v>4.65626896453636</v>
+      </c>
+      <c r="G3" s="6">
+        <f>25.4*1.25+D3</f>
+        <v>35.71875</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H8" si="2">IFERROR(($C$29*(G3/D3)+$C$30)*G3-D3,"")</f>
+        <v>27.185143749999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8">
+        <v>13.224299999999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" si="0"/>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.21875</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>6.1396526085935168</v>
+      </c>
+      <c r="G4" s="6">
+        <f>25.4*1.25+D4</f>
+        <v>37.306249999999999</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="2"/>
+        <v>28.043890535714283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="8">
+        <v>6.8902999999999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.1875</v>
+      </c>
+      <c r="F5" s="5">
+        <f>(($C$28*1000000000)*(D5/1000)^4)/(64*(G5/1000)*B5)</f>
+        <v>7.8669332120169209</v>
+      </c>
+      <c r="G5" s="6">
+        <f>25.4*1+D5</f>
+        <v>30.162499999999998</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="2"/>
+        <v>22.5466275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.024</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>3.96875</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.15625</v>
+      </c>
+      <c r="F6" s="5">
+        <f>(($C$28*1000000000)*(D6/1000)^4)/(64*(G6/1000)*B6)</f>
+        <v>6.6717921915690237</v>
+      </c>
+      <c r="G6" s="17">
+        <f>25.4+D6</f>
+        <v>29.368749999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>22.231699249999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1.5674999999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>7.210279574112838</v>
+      </c>
+      <c r="G7" s="17">
+        <f>25.4+D7</f>
+        <v>28.574999999999999</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>21.748114999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.24762499999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="E8" s="14">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7052565534688924</v>
+      </c>
+      <c r="G8" s="6">
+        <f>25.4*0.5+D8</f>
+        <v>14.2875</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>10.874057499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="16">
+        <f t="shared" ref="B10:B16" si="3">B2</f>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <f>D2</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E10" s="15">
+        <f>E2</f>
+        <v>0.15625</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4.125</v>
+      </c>
+      <c r="G10" s="5">
+        <f>IFERROR(((($C$28*1000000000)*(D10/1000)^4)/(64*B10*F10))*1000,"")</f>
+        <v>36.936151096158035</v>
+      </c>
+      <c r="H10" s="11">
+        <f>IFERROR((-0.01245*(G10/D10)+0.98425)*G10-D10,"")</f>
+        <v>28.105901942324181</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="16">
+        <f t="shared" si="3"/>
+        <v>4.7408000000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" ref="D11:E16" si="4">D3</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5.125</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11:G16" si="5">IFERROR(((($C$28*1000000000)*(D11/1000)^4)/(64*B11*F11))*1000,"")</f>
+        <v>32.451923332104016</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" ref="H11:H16" si="6">IFERROR((-0.01245*(G11/D11)+0.98425)*G11-D11,"")</f>
+        <v>24.668386819494415</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="16">
+        <f t="shared" si="3"/>
+        <v>13.224299999999999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="4"/>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="4"/>
+        <v>0.21875</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6.125</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="5"/>
+        <v>37.395496347647651</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="6"/>
+        <v>28.116792691873933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="16">
+        <f t="shared" si="3"/>
+        <v>6.8902999999999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="4"/>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="4"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7.125</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="5"/>
+        <v>33.303350597538298</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="6"/>
+        <v>25.116908892875195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="16">
+        <f t="shared" si="3"/>
+        <v>4.024</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="4"/>
+        <v>3.96875</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F14" s="18">
+        <f>6+1/6</f>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="5"/>
+        <v>31.774410312347477</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="6"/>
+        <v>24.138048946480367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="16">
+        <f t="shared" si="3"/>
+        <v>1.5674999999999999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="4"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="F15" s="18">
+        <f>7+1/6</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="5"/>
+        <v>28.748893790270838</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="6"/>
+        <v>21.880181789500778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="16">
+        <f t="shared" si="3"/>
+        <v>0.24762499999999998</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="4"/>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F16" s="18">
+        <f>5+1/6</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="5"/>
+        <v>15.776874775681314</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="6"/>
+        <v>11.988809166651111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f>IF(ISBLANK(H18),"",IFERROR((($C$28*1000000000)*(D18/1000)^4)/(64*(G18/1000)*F18),""))</f>
+        <v/>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f>D10</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E18" s="15">
+        <f>E10</f>
+        <v>0.15625</v>
+      </c>
+      <c r="F18" s="13">
+        <f>F10</f>
+        <v>4.125</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" ref="G18:G24" si="7">((-($C$30*D18)/$C$29)-SQRT((-($C$30*D18)/$C$29)^2-(4*(D18*(H18+D18))/-$C$29)))/2</f>
+        <v>4.0854555575487268</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" ref="B19:B24" si="8">IFERROR((($C$28*1000000000)*(D19/1000)^4)/(64*(G19/1000)*F19),"")</f>
+        <v>3.8968448906097919</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:F24" si="9">D11</f>
+        <v>3.96875</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="9"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="9"/>
+        <v>5.125</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="7"/>
+        <v>39.480164710575394</v>
+      </c>
+      <c r="H19" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="8"/>
+        <v>15.832953817464206</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="9"/>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="9"/>
+        <v>0.21875</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="9"/>
+        <v>6.125</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="7"/>
+        <v>31.234175760982566</v>
+      </c>
+      <c r="H20" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="8"/>
+        <v>46.806301318960791</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="9"/>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1875</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="9"/>
+        <v>7.125</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="7"/>
+        <v>4.9025466690584665</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="8"/>
+        <v>31.296443027176725</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="9"/>
+        <v>3.96875</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="9"/>
+        <v>0.15625</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="9"/>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="7"/>
+        <v>4.0854555575487268</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="8"/>
+        <v>13.787902714112436</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="9"/>
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="9"/>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="7"/>
+        <v>3.2683644460389871</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="8"/>
+        <v>0.23378729954337357</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="9"/>
+        <v>1.5874999999999999</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="9"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="7"/>
+        <v>16.710696534664763</v>
+      </c>
+      <c r="H24" s="8">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7">
+        <v>203.4</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>-1.2449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30">
+        <v>0.98424999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B29:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE45467-C099-4729-88DC-752A8F0EA990}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,14 +2332,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1807,15 +2546,15 @@
         <v>0</v>
       </c>
       <c r="C10" s="12">
-        <f>C6</f>
+        <f t="shared" ref="C10:E12" si="1">C6</f>
         <v>3.96875</v>
       </c>
       <c r="D10" s="15">
-        <f>D6</f>
+        <f t="shared" si="1"/>
         <v>0.15625</v>
       </c>
       <c r="E10" s="13">
-        <f>E6</f>
+        <f t="shared" si="1"/>
         <v>4.125</v>
       </c>
       <c r="F10" s="5">
@@ -1838,11 +2577,11 @@
         <v>0</v>
       </c>
       <c r="C11" s="12">
-        <f>C7</f>
+        <f t="shared" si="1"/>
         <v>4.7625000000000002</v>
       </c>
       <c r="D11" s="15">
-        <f t="shared" ref="D11:E12" si="1">D7</f>
+        <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
       <c r="E11" s="13">
@@ -1866,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="12">
-        <f>C8</f>
+        <f t="shared" si="1"/>
         <v>1.5874999999999999</v>
       </c>
       <c r="D12" s="15">
@@ -1901,7 +2640,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B17">
@@ -1909,7 +2648,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18">
         <v>0.98424999999999996</v>
       </c>
@@ -1925,7 +2664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCADA16-F37A-4E24-B4B4-CAC4D5F5F2A3}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -1941,14 +2680,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2372,7 +3111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7B2F4C-D259-48ED-AC54-C1F95C4B8EE6}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -2473,12 +3212,12 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40617605-E26D-4755-B8C7-A46DAD804A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6C3C09-D10B-4A48-A59D-CB4D9DA3C571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
+    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -350,6 +350,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="13" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="13" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,10 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,12 +699,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -779,10 +779,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="20"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -825,8 +825,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -844,7 +844,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,14 +859,14 @@
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
@@ -983,22 +983,22 @@
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>4.7625000000000002</v>
+        <v>3.96875</v>
       </c>
       <c r="E5" s="14">
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="F5" s="5">
         <f>(($C$28*1000000000)*(D5/1000)^4)/(64*(G5/1000)*B5)</f>
-        <v>7.8669332120169209</v>
+        <v>3.8963893849141193</v>
       </c>
       <c r="G5" s="6">
         <f>25.4*1+D5</f>
-        <v>30.162499999999998</v>
+        <v>29.368749999999999</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="2"/>
-        <v>22.5466275</v>
+        <v>22.231699249999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1020,15 +1020,15 @@
       </c>
       <c r="F6" s="5">
         <f>(($C$28*1000000000)*(D6/1000)^4)/(64*(G6/1000)*B6)</f>
-        <v>6.6717921915690237</v>
-      </c>
-      <c r="G6" s="21">
-        <f>25.4+D6</f>
-        <v>29.368749999999999</v>
+        <v>7.7142597215016844</v>
+      </c>
+      <c r="G6" s="17">
+        <f>25.4</f>
+        <v>25.4</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="2"/>
-        <v>22.231699249999998</v>
+        <v>19.007327999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1050,15 +1050,15 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>7.210279574112838</v>
-      </c>
-      <c r="G7" s="21">
-        <f>25.4+D7</f>
-        <v>28.574999999999999</v>
+        <v>8.1115645208769447</v>
+      </c>
+      <c r="G7" s="17">
+        <f>25.4</f>
+        <v>25.4</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="2"/>
-        <v>21.748114999999999</v>
+        <v>19.295109999999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="16">
         <f>B2</f>
         <v>5.1749999999999998</v>
       </c>
@@ -1133,8 +1133,8 @@
       <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="20">
-        <f t="shared" ref="B11:B16" si="3">B3</f>
+      <c r="B11" s="16">
+        <f t="shared" ref="B11:B15" si="3">B3</f>
         <v>4.7408000000000001</v>
       </c>
       <c r="C11" t="s">
@@ -1167,7 +1167,7 @@
       <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="16">
         <f t="shared" si="3"/>
         <v>13.224299999999999</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="16">
         <f t="shared" si="3"/>
         <v>6.8902999999999999</v>
       </c>
@@ -1207,29 +1207,29 @@
       </c>
       <c r="D13" s="12">
         <f t="shared" si="4"/>
-        <v>4.7625000000000002</v>
+        <v>3.96875</v>
       </c>
       <c r="E13" s="15">
         <f t="shared" si="4"/>
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="F13" s="6">
-        <v>7.125</v>
+        <v>4.125</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>33.303350597538298</v>
+        <v>27.741111696532492</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="6"/>
-        <v>25.116908892875195</v>
+        <v>20.921294302125165</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="16">
         <f t="shared" si="3"/>
         <v>4.024</v>
       </c>
@@ -1244,24 +1244,24 @@
         <f t="shared" si="4"/>
         <v>0.15625</v>
       </c>
-      <c r="F14" s="22">
-        <f>6+1/6</f>
-        <v>6.166666666666667</v>
+      <c r="F14" s="18">
+        <f>8+1/6</f>
+        <v>8.1666666666666661</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>31.774410312347477</v>
+        <v>23.992922072588915</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="6"/>
-        <v>24.138048946480367</v>
+        <v>17.84043262603068</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <f t="shared" si="3"/>
         <v>1.5674999999999999</v>
       </c>
@@ -1276,24 +1276,24 @@
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="F15" s="22">
-        <f>7+1/6</f>
-        <v>7.166666666666667</v>
+      <c r="F15" s="18">
+        <f>8+1/6</f>
+        <v>8.1666666666666661</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>28.748893790270838</v>
+        <v>25.22862108125809</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="6"/>
-        <v>21.880181789500778</v>
+        <v>19.160453809562711</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <f>B8</f>
         <v>0.24762499999999998</v>
       </c>
@@ -1308,7 +1308,7 @@
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="18">
         <f>5+1/6</f>
         <v>5.166666666666667</v>
       </c>
@@ -1425,26 +1425,26 @@
       </c>
       <c r="B21" s="5">
         <f t="shared" si="7"/>
-        <v>46.806301318960791</v>
+        <v>46.78660169719349</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="8"/>
-        <v>4.7625000000000002</v>
+        <v>3.96875</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="8"/>
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="8"/>
-        <v>7.125</v>
+        <v>4.125</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" ref="G21:G24" si="9">((-($C$30*D21)/$C$29)-SQRT((-($C$30*D21)/$C$29)^2-(4*(D21*(H21+D21))/-$C$29)))/2</f>
-        <v>4.9025466690584665</v>
+        <v>4.0854555575487268</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B22" s="5">
         <f t="shared" si="7"/>
-        <v>31.296443027176725</v>
+        <v>3.9921316403849567</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -1467,15 +1467,17 @@
         <f t="shared" si="8"/>
         <v>0.15625</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="19">
         <f t="shared" si="8"/>
-        <v>6.166666666666667</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="9"/>
-        <v>4.0854555575487268</v>
-      </c>
-      <c r="H22" s="8"/>
+        <v>24.184452597557083</v>
+      </c>
+      <c r="H22" s="8">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1483,7 +1485,7 @@
       </c>
       <c r="B23" s="5">
         <f t="shared" si="7"/>
-        <v>13.787902714112436</v>
+        <v>12.099588096057854</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -1496,9 +1498,9 @@
         <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="19">
         <f t="shared" si="8"/>
-        <v>7.166666666666667</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="9"/>
@@ -1525,7 +1527,7 @@
         <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="19">
         <f t="shared" si="8"/>
         <v>5.166666666666667</v>
       </c>
@@ -1553,7 +1555,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C29">
@@ -1561,7 +1563,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
+      <c r="B30" s="23"/>
       <c r="C30">
         <v>0.98424999999999996</v>
       </c>
@@ -1593,14 +1595,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1901,7 +1903,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B17">
@@ -1909,7 +1911,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18">
         <v>0.98424999999999996</v>
       </c>
@@ -1941,14 +1943,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2473,12 +2475,12 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6C3C09-D10B-4A48-A59D-CB4D9DA3C571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1347842B-5783-45CF-BDE4-93772817FB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
   <si>
     <t>N-m/rad</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>all hip springs need to have 1/8 coil past a full turn for proper assembly</t>
+  </si>
+  <si>
+    <t>Actual K119 hip spring</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +317,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -327,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -366,6 +375,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="13" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,10 +860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8781DA6-A82C-4E0B-8128-7A6EA08A4D8F}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B30" sqref="B30:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +917,7 @@
         <v>0.15625</v>
       </c>
       <c r="F2" s="5">
-        <f>(($C$28*1000000000)*(D2/1000)^4)/(64*(G2/1000)*B2)</f>
+        <f>(($C$29*1000000000)*(D2/1000)^4)/(64*(G2/1000)*B2)</f>
         <v>4.265592252574681</v>
       </c>
       <c r="G2" s="6">
@@ -906,7 +925,7 @@
         <v>35.71875</v>
       </c>
       <c r="H2" s="10">
-        <f>IFERROR(($C$29*(G2/D2)+$C$30)*G2-D2,"")</f>
+        <f>IFERROR(($C$30*(G2/D2)+$C$31)*G2-D2,"")</f>
         <v>27.185143749999998</v>
       </c>
     </row>
@@ -929,7 +948,7 @@
         <v>0.15625</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F8" si="1">(($C$28*1000000000)*(D3/1000)^4)/(64*(G3/1000)*B3)</f>
+        <f>(($C$29*1000000000)*(D3/1000)^4)/(64*(G3/1000)*B3)</f>
         <v>4.65626896453636</v>
       </c>
       <c r="G3" s="6">
@@ -937,7 +956,7 @@
         <v>35.71875</v>
       </c>
       <c r="H3" s="10">
-        <f t="shared" ref="H3:H8" si="2">IFERROR(($C$29*(G3/D3)+$C$30)*G3-D3,"")</f>
+        <f>IFERROR(($C$30*(G3/D3)+$C$31)*G3-D3,"")</f>
         <v>27.185143749999998</v>
       </c>
     </row>
@@ -959,7 +978,7 @@
         <v>0.21875</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="1"/>
+        <f>(($C$29*1000000000)*(D4/1000)^4)/(64*(G4/1000)*B4)</f>
         <v>6.1396526085935168</v>
       </c>
       <c r="G4" s="6">
@@ -967,7 +986,7 @@
         <v>37.306249999999999</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" si="2"/>
+        <f>IFERROR(($C$30*(G4/D4)+$C$31)*G4-D4,"")</f>
         <v>28.043890535714283</v>
       </c>
     </row>
@@ -989,7 +1008,7 @@
         <v>0.15625</v>
       </c>
       <c r="F5" s="5">
-        <f>(($C$28*1000000000)*(D5/1000)^4)/(64*(G5/1000)*B5)</f>
+        <f>(($C$29*1000000000)*(D5/1000)^4)/(64*(G5/1000)*B5)</f>
         <v>3.8963893849141193</v>
       </c>
       <c r="G5" s="6">
@@ -997,7 +1016,7 @@
         <v>29.368749999999999</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="2"/>
+        <f>IFERROR(($C$30*(G5/D5)+$C$31)*G5-D5,"")</f>
         <v>22.231699249999998</v>
       </c>
     </row>
@@ -1019,7 +1038,7 @@
         <v>0.15625</v>
       </c>
       <c r="F6" s="5">
-        <f>(($C$28*1000000000)*(D6/1000)^4)/(64*(G6/1000)*B6)</f>
+        <f>(($C$29*1000000000)*(D6/1000)^4)/(64*(G6/1000)*B6)</f>
         <v>7.7142597215016844</v>
       </c>
       <c r="G6" s="17">
@@ -1027,7 +1046,7 @@
         <v>25.4</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" si="2"/>
+        <f>IFERROR(($C$30*(G6/D6)+$C$31)*G6-D6,"")</f>
         <v>19.007327999999998</v>
       </c>
     </row>
@@ -1049,7 +1068,7 @@
         <v>0.125</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
+        <f>(($C$29*1000000000)*(D7/1000)^4)/(64*(G7/1000)*B7)</f>
         <v>8.1115645208769447</v>
       </c>
       <c r="G7" s="17">
@@ -1057,7 +1076,7 @@
         <v>25.4</v>
       </c>
       <c r="H7" s="10">
-        <f t="shared" si="2"/>
+        <f>IFERROR(($C$30*(G7/D7)+$C$31)*G7-D7,"")</f>
         <v>19.295109999999998</v>
       </c>
     </row>
@@ -1079,7 +1098,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
+        <f>(($C$29*1000000000)*(D8/1000)^4)/(64*(G8/1000)*B8)</f>
         <v>5.7052565534688924</v>
       </c>
       <c r="G8" s="6">
@@ -1087,7 +1106,7 @@
         <v>14.2875</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" si="2"/>
+        <f>IFERROR(($C$30*(G8/D8)+$C$31)*G8-D8,"")</f>
         <v>10.874057499999999</v>
       </c>
     </row>
@@ -1118,7 +1137,7 @@
         <v>4.125</v>
       </c>
       <c r="G10" s="5">
-        <f>IFERROR(((($C$28*1000000000)*(D10/1000)^4)/(64*B10*F10))*1000,"")</f>
+        <f>IFERROR(((($C$29*1000000000)*(D10/1000)^4)/(64*B10*F10))*1000,"")</f>
         <v>36.936151096158035</v>
       </c>
       <c r="H10" s="11">
@@ -1134,29 +1153,29 @@
         <v>62</v>
       </c>
       <c r="B11" s="16">
-        <f t="shared" ref="B11:B15" si="3">B3</f>
+        <f t="shared" ref="B11:B15" si="1">B3</f>
         <v>4.7408000000000001</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" ref="D11:E16" si="4">D3</f>
+        <f t="shared" ref="D11:E16" si="2">D3</f>
         <v>3.96875</v>
       </c>
       <c r="E11" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
       <c r="F11" s="6">
         <v>5.125</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" ref="G11:G16" si="5">IFERROR(((($C$28*1000000000)*(D11/1000)^4)/(64*B11*F11))*1000,"")</f>
+        <f>IFERROR(((($C$29*1000000000)*(D11/1000)^4)/(64*B11*F11))*1000,"")</f>
         <v>32.451923332104016</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" ref="H11:H16" si="6">IFERROR((-0.01245*(G11/D11)+0.98425)*G11-D11,"")</f>
+        <f t="shared" ref="H11:H16" si="3">IFERROR((-0.01245*(G11/D11)+0.98425)*G11-D11,"")</f>
         <v>24.668386819494415</v>
       </c>
       <c r="J11" t="s">
@@ -1168,29 +1187,29 @@
         <v>63</v>
       </c>
       <c r="B12" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13.224299999999999</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5.5562500000000004</v>
       </c>
       <c r="E12" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.21875</v>
       </c>
       <c r="F12" s="6">
         <v>6.125</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="5"/>
+        <f>IFERROR(((($C$29*1000000000)*(D12/1000)^4)/(64*B12*F12))*1000,"")</f>
         <v>37.395496347647651</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>28.116792691873933</v>
       </c>
     </row>
@@ -1199,29 +1218,29 @@
         <v>69</v>
       </c>
       <c r="B13" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.8902999999999999</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.96875</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
       <c r="F13" s="6">
         <v>4.125</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="5"/>
+        <f>IFERROR(((($C$29*1000000000)*(D13/1000)^4)/(64*B13*F13))*1000,"")</f>
         <v>27.741111696532492</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>20.921294302125165</v>
       </c>
     </row>
@@ -1230,18 +1249,18 @@
         <v>70</v>
       </c>
       <c r="B14" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.024</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.96875</v>
       </c>
       <c r="E14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.15625</v>
       </c>
       <c r="F14" s="18">
@@ -1249,11 +1268,11 @@
         <v>8.1666666666666661</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="5"/>
+        <f>IFERROR(((($C$29*1000000000)*(D14/1000)^4)/(64*B14*F14))*1000,"")</f>
         <v>23.992922072588915</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>17.84043262603068</v>
       </c>
     </row>
@@ -1262,18 +1281,18 @@
         <v>71</v>
       </c>
       <c r="B15" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.5674999999999999</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.1749999999999998</v>
       </c>
       <c r="E15" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="F15" s="18">
@@ -1281,11 +1300,11 @@
         <v>8.1666666666666661</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="5"/>
+        <f>IFERROR(((($C$29*1000000000)*(D15/1000)^4)/(64*B15*F15))*1000,"")</f>
         <v>25.22862108125809</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>19.160453809562711</v>
       </c>
     </row>
@@ -1301,11 +1320,11 @@
         <v>0</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.5874999999999999</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
       <c r="F16" s="18">
@@ -1313,11 +1332,11 @@
         <v>5.166666666666667</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="5"/>
+        <f>IFERROR(((($C$29*1000000000)*(D16/1000)^4)/(64*B16*F16))*1000,"")</f>
         <v>15.776874775681314</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11.988809166651111</v>
       </c>
     </row>
@@ -1330,7 +1349,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="5" t="str">
-        <f>IF(ISBLANK(H18),"",IFERROR((($C$28*1000000000)*(D18/1000)^4)/(64*(G18/1000)*F18),""))</f>
+        <f>IF(ISBLANK(H18),"",IFERROR((($C$29*1000000000)*(D18/1000)^4)/(64*(G18/1000)*F18),""))</f>
         <v/>
       </c>
       <c r="C18" t="s">
@@ -1349,7 +1368,7 @@
         <v>4.125</v>
       </c>
       <c r="G18" s="5">
-        <f>((-($C$30*D18)/$C$29)-SQRT((-($C$30*D18)/$C$29)^2-(4*(D18*(H18+D18))/-$C$29)))/2</f>
+        <f>((-($C$31*D18)/$C$30)-SQRT((-($C$31*D18)/$C$30)^2-(4*(D18*(H18+D18))/-$C$30)))/2</f>
         <v>4.0854555575487268</v>
       </c>
       <c r="H18" s="8"/>
@@ -1362,26 +1381,26 @@
         <v>62</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" ref="B19:B24" si="7">IFERROR((($C$28*1000000000)*(D19/1000)^4)/(64*(G19/1000)*F19),"")</f>
+        <f t="shared" ref="B19:B24" si="4">IFERROR((($C$29*1000000000)*(D19/1000)^4)/(64*(G19/1000)*F19),"")</f>
         <v>3.8968448906097919</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" ref="D19:F24" si="8">D11</f>
+        <f t="shared" ref="D19:F24" si="5">D11</f>
         <v>3.96875</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.15625</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>5.125</v>
       </c>
       <c r="G19" s="5">
-        <f>((-($C$30*D19)/$C$29)-SQRT((-($C$30*D19)/$C$29)^2-(4*(D19*(H19+D19))/-$C$29)))/2</f>
+        <f>((-($C$31*D19)/$C$30)-SQRT((-($C$31*D19)/$C$30)^2-(4*(D19*(H19+D19))/-$C$30)))/2</f>
         <v>39.480164710575394</v>
       </c>
       <c r="H19" s="8">
@@ -1393,30 +1412,30 @@
         <v>63</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" si="7"/>
-        <v>20.387322069660314</v>
+        <f t="shared" si="4"/>
+        <v>15.832953817464206</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>5.5562500000000004</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.21875</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6.125</v>
       </c>
       <c r="G20" s="5">
-        <f>((-($C$30*D20)/$C$29)-SQRT((-($C$30*D20)/$C$29)^2-(4*(D20*(H20+D20))/-$C$29)))/2</f>
-        <v>24.256705253415191</v>
+        <f>((-($C$31*D20)/$C$30)-SQRT((-($C$31*D20)/$C$30)^2-(4*(D20*(H20+D20))/-$C$30)))/2</f>
+        <v>31.234175760982566</v>
       </c>
       <c r="H20" s="8">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1424,26 +1443,26 @@
         <v>69</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>46.78660169719349</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3.96875</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.15625</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4.125</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:G24" si="9">((-($C$30*D21)/$C$29)-SQRT((-($C$30*D21)/$C$29)^2-(4*(D21*(H21+D21))/-$C$29)))/2</f>
+        <f t="shared" ref="G21:G24" si="6">((-($C$31*D21)/$C$30)-SQRT((-($C$31*D21)/$C$30)^2-(4*(D21*(H21+D21))/-$C$30)))/2</f>
         <v>4.0854555575487268</v>
       </c>
       <c r="H21" s="8"/>
@@ -1453,26 +1472,26 @@
         <v>70</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3.9921316403849567</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3.96875</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.15625</v>
       </c>
       <c r="F22" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8.1666666666666661</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>24.184452597557083</v>
       </c>
       <c r="H22" s="8">
@@ -1484,26 +1503,26 @@
         <v>71</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>12.099588096057854</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3.1749999999999998</v>
       </c>
       <c r="E23" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="F23" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8.1666666666666661</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>3.2683644460389871</v>
       </c>
       <c r="H23" s="8"/>
@@ -1513,26 +1532,26 @@
         <v>64</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.23378729954337357</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.5874999999999999</v>
       </c>
       <c r="E24" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="F24" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>5.166666666666667</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>16.710696534664763</v>
       </c>
       <c r="H24" s="8">
@@ -1540,31 +1559,66 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="29">
+        <f t="shared" ref="B26" si="7">IFERROR((($C$29*1000000000)*(D26/1000)^4)/(64*(G26/1000)*F26),"")</f>
+        <v>13.027921427505186</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="31">
+        <f>CONVERT(E26,"in","mm")</f>
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.21875</v>
+      </c>
+      <c r="F26" s="33">
+        <f>5+1/6</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="G26" s="29">
+        <v>45</v>
+      </c>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C29" s="7">
         <v>203.4</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>-1.2449999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+      <c r="C31">
         <v>0.98424999999999996</v>
       </c>
     </row>
@@ -1572,7 +1626,7 @@
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1347842B-5783-45CF-BDE4-93772817FB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64819788-E38C-4DB0-853C-64F2FCD64A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
+    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,10 +272,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -336,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -363,6 +364,13 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="13" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,16 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="13" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,12 +717,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -798,10 +797,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="27"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -844,8 +843,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -863,7 +862,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,14 +877,14 @@
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
@@ -917,7 +916,7 @@
         <v>0.15625</v>
       </c>
       <c r="F2" s="5">
-        <f>(($C$29*1000000000)*(D2/1000)^4)/(64*(G2/1000)*B2)</f>
+        <f t="shared" ref="F2:F8" si="0">(($C$29*1000000000)*(D2/1000)^4)/(64*(G2/1000)*B2)</f>
         <v>4.265592252574681</v>
       </c>
       <c r="G2" s="6">
@@ -925,7 +924,7 @@
         <v>35.71875</v>
       </c>
       <c r="H2" s="10">
-        <f>IFERROR(($C$30*(G2/D2)+$C$31)*G2-D2,"")</f>
+        <f t="shared" ref="H2:H8" si="1">IFERROR(($C$30*(G2/D2)+$C$31)*G2-D2,"")</f>
         <v>27.185143749999998</v>
       </c>
     </row>
@@ -940,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="10">
-        <f t="shared" ref="D3:D8" si="0">CONVERT(E3,"in","mm")</f>
+        <f t="shared" ref="D3:D8" si="2">CONVERT(E3,"in","mm")</f>
         <v>3.96875</v>
       </c>
       <c r="E3" s="14">
@@ -948,7 +947,7 @@
         <v>0.15625</v>
       </c>
       <c r="F3" s="5">
-        <f>(($C$29*1000000000)*(D3/1000)^4)/(64*(G3/1000)*B3)</f>
+        <f t="shared" si="0"/>
         <v>4.65626896453636</v>
       </c>
       <c r="G3" s="6">
@@ -956,7 +955,7 @@
         <v>35.71875</v>
       </c>
       <c r="H3" s="10">
-        <f>IFERROR(($C$30*(G3/D3)+$C$31)*G3-D3,"")</f>
+        <f t="shared" si="1"/>
         <v>27.185143749999998</v>
       </c>
     </row>
@@ -971,14 +970,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.5562500000000004</v>
       </c>
       <c r="E4" s="14">
         <v>0.21875</v>
       </c>
       <c r="F4" s="5">
-        <f>(($C$29*1000000000)*(D4/1000)^4)/(64*(G4/1000)*B4)</f>
+        <f t="shared" si="0"/>
         <v>6.1396526085935168</v>
       </c>
       <c r="G4" s="6">
@@ -986,7 +985,7 @@
         <v>37.306249999999999</v>
       </c>
       <c r="H4" s="10">
-        <f>IFERROR(($C$30*(G4/D4)+$C$31)*G4-D4,"")</f>
+        <f t="shared" si="1"/>
         <v>28.043890535714283</v>
       </c>
     </row>
@@ -1001,14 +1000,14 @@
         <v>0</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.96875</v>
       </c>
       <c r="E5" s="14">
         <v>0.15625</v>
       </c>
       <c r="F5" s="5">
-        <f>(($C$29*1000000000)*(D5/1000)^4)/(64*(G5/1000)*B5)</f>
+        <f t="shared" si="0"/>
         <v>3.8963893849141193</v>
       </c>
       <c r="G5" s="6">
@@ -1016,7 +1015,7 @@
         <v>29.368749999999999</v>
       </c>
       <c r="H5" s="10">
-        <f>IFERROR(($C$30*(G5/D5)+$C$31)*G5-D5,"")</f>
+        <f t="shared" si="1"/>
         <v>22.231699249999998</v>
       </c>
     </row>
@@ -1031,14 +1030,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.96875</v>
       </c>
       <c r="E6" s="14">
         <v>0.15625</v>
       </c>
       <c r="F6" s="5">
-        <f>(($C$29*1000000000)*(D6/1000)^4)/(64*(G6/1000)*B6)</f>
+        <f t="shared" si="0"/>
         <v>7.7142597215016844</v>
       </c>
       <c r="G6" s="17">
@@ -1046,7 +1045,7 @@
         <v>25.4</v>
       </c>
       <c r="H6" s="10">
-        <f>IFERROR(($C$30*(G6/D6)+$C$31)*G6-D6,"")</f>
+        <f t="shared" si="1"/>
         <v>19.007327999999998</v>
       </c>
     </row>
@@ -1061,14 +1060,14 @@
         <v>0</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1749999999999998</v>
       </c>
       <c r="E7" s="14">
         <v>0.125</v>
       </c>
       <c r="F7" s="5">
-        <f>(($C$29*1000000000)*(D7/1000)^4)/(64*(G7/1000)*B7)</f>
+        <f t="shared" si="0"/>
         <v>8.1115645208769447</v>
       </c>
       <c r="G7" s="17">
@@ -1076,7 +1075,7 @@
         <v>25.4</v>
       </c>
       <c r="H7" s="10">
-        <f>IFERROR(($C$30*(G7/D7)+$C$31)*G7-D7,"")</f>
+        <f t="shared" si="1"/>
         <v>19.295109999999998</v>
       </c>
     </row>
@@ -1091,14 +1090,14 @@
         <v>0</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5874999999999999</v>
       </c>
       <c r="E8" s="14">
         <v>6.25E-2</v>
       </c>
       <c r="F8" s="5">
-        <f>(($C$29*1000000000)*(D8/1000)^4)/(64*(G8/1000)*B8)</f>
+        <f t="shared" si="0"/>
         <v>5.7052565534688924</v>
       </c>
       <c r="G8" s="6">
@@ -1106,7 +1105,7 @@
         <v>14.2875</v>
       </c>
       <c r="H8" s="10">
-        <f>IFERROR(($C$30*(G8/D8)+$C$31)*G8-D8,"")</f>
+        <f t="shared" si="1"/>
         <v>10.874057499999999</v>
       </c>
     </row>
@@ -1137,7 +1136,7 @@
         <v>4.125</v>
       </c>
       <c r="G10" s="5">
-        <f>IFERROR(((($C$29*1000000000)*(D10/1000)^4)/(64*B10*F10))*1000,"")</f>
+        <f t="shared" ref="G10:G16" si="3">IFERROR(((($C$29*1000000000)*(D10/1000)^4)/(64*B10*F10))*1000,"")</f>
         <v>36.936151096158035</v>
       </c>
       <c r="H10" s="11">
@@ -1153,29 +1152,29 @@
         <v>62</v>
       </c>
       <c r="B11" s="16">
-        <f t="shared" ref="B11:B15" si="1">B3</f>
+        <f t="shared" ref="B11:B15" si="4">B3</f>
         <v>4.7408000000000001</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" ref="D11:E16" si="2">D3</f>
+        <f t="shared" ref="D11:E16" si="5">D3</f>
         <v>3.96875</v>
       </c>
       <c r="E11" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15625</v>
       </c>
       <c r="F11" s="6">
         <v>5.125</v>
       </c>
       <c r="G11" s="5">
-        <f>IFERROR(((($C$29*1000000000)*(D11/1000)^4)/(64*B11*F11))*1000,"")</f>
+        <f t="shared" si="3"/>
         <v>32.451923332104016</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" ref="H11:H16" si="3">IFERROR((-0.01245*(G11/D11)+0.98425)*G11-D11,"")</f>
+        <f t="shared" ref="H11:H16" si="6">IFERROR((-0.01245*(G11/D11)+0.98425)*G11-D11,"")</f>
         <v>24.668386819494415</v>
       </c>
       <c r="J11" t="s">
@@ -1187,29 +1186,29 @@
         <v>63</v>
       </c>
       <c r="B12" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.224299999999999</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.5562500000000004</v>
       </c>
       <c r="E12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.21875</v>
       </c>
       <c r="F12" s="6">
         <v>6.125</v>
       </c>
       <c r="G12" s="5">
-        <f>IFERROR(((($C$29*1000000000)*(D12/1000)^4)/(64*B12*F12))*1000,"")</f>
+        <f t="shared" si="3"/>
         <v>37.395496347647651</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28.116792691873933</v>
       </c>
     </row>
@@ -1218,29 +1217,29 @@
         <v>69</v>
       </c>
       <c r="B13" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.8902999999999999</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.96875</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15625</v>
       </c>
       <c r="F13" s="6">
         <v>4.125</v>
       </c>
       <c r="G13" s="5">
-        <f>IFERROR(((($C$29*1000000000)*(D13/1000)^4)/(64*B13*F13))*1000,"")</f>
+        <f t="shared" si="3"/>
         <v>27.741111696532492</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20.921294302125165</v>
       </c>
     </row>
@@ -1249,18 +1248,18 @@
         <v>70</v>
       </c>
       <c r="B14" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.024</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.96875</v>
       </c>
       <c r="E14" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15625</v>
       </c>
       <c r="F14" s="18">
@@ -1268,11 +1267,11 @@
         <v>8.1666666666666661</v>
       </c>
       <c r="G14" s="5">
-        <f>IFERROR(((($C$29*1000000000)*(D14/1000)^4)/(64*B14*F14))*1000,"")</f>
+        <f t="shared" si="3"/>
         <v>23.992922072588915</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17.84043262603068</v>
       </c>
     </row>
@@ -1281,18 +1280,18 @@
         <v>71</v>
       </c>
       <c r="B15" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5674999999999999</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.1749999999999998</v>
       </c>
       <c r="E15" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
       <c r="F15" s="18">
@@ -1300,11 +1299,11 @@
         <v>8.1666666666666661</v>
       </c>
       <c r="G15" s="5">
-        <f>IFERROR(((($C$29*1000000000)*(D15/1000)^4)/(64*B15*F15))*1000,"")</f>
+        <f t="shared" si="3"/>
         <v>25.22862108125809</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19.160453809562711</v>
       </c>
     </row>
@@ -1320,11 +1319,11 @@
         <v>0</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5874999999999999</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
       <c r="F16" s="18">
@@ -1332,11 +1331,11 @@
         <v>5.166666666666667</v>
       </c>
       <c r="G16" s="5">
-        <f>IFERROR(((($C$29*1000000000)*(D16/1000)^4)/(64*B16*F16))*1000,"")</f>
+        <f t="shared" si="3"/>
         <v>15.776874775681314</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.988809166651111</v>
       </c>
     </row>
@@ -1381,22 +1380,22 @@
         <v>62</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" ref="B19:B24" si="4">IFERROR((($C$29*1000000000)*(D19/1000)^4)/(64*(G19/1000)*F19),"")</f>
+        <f t="shared" ref="B19:B24" si="7">IFERROR((($C$29*1000000000)*(D19/1000)^4)/(64*(G19/1000)*F19),"")</f>
         <v>3.8968448906097919</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" ref="D19:F24" si="5">D11</f>
+        <f t="shared" ref="D19:F24" si="8">D11</f>
         <v>3.96875</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.15625</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.125</v>
       </c>
       <c r="G19" s="5">
@@ -1412,22 +1411,22 @@
         <v>63</v>
       </c>
       <c r="B20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15.832953817464206</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.5562500000000004</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.21875</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.125</v>
       </c>
       <c r="G20" s="5">
@@ -1443,26 +1442,26 @@
         <v>69</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>46.78660169719349</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.96875</v>
       </c>
       <c r="E21" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.15625</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.125</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:G24" si="6">((-($C$31*D21)/$C$30)-SQRT((-($C$31*D21)/$C$30)^2-(4*(D21*(H21+D21))/-$C$30)))/2</f>
+        <f t="shared" ref="G21:G24" si="9">((-($C$31*D21)/$C$30)-SQRT((-($C$31*D21)/$C$30)^2-(4*(D21*(H21+D21))/-$C$30)))/2</f>
         <v>4.0854555575487268</v>
       </c>
       <c r="H21" s="8"/>
@@ -1472,26 +1471,26 @@
         <v>70</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.9921316403849567</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.96875</v>
       </c>
       <c r="E22" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.15625</v>
       </c>
       <c r="F22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.1666666666666661</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24.184452597557083</v>
       </c>
       <c r="H22" s="8">
@@ -1503,26 +1502,26 @@
         <v>71</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12.099588096057854</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.1749999999999998</v>
       </c>
       <c r="E23" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.125</v>
       </c>
       <c r="F23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.1666666666666661</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.2683644460389871</v>
       </c>
       <c r="H23" s="8"/>
@@ -1532,26 +1531,26 @@
         <v>64</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.23378729954337357</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5874999999999999</v>
       </c>
       <c r="E24" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.25E-2</v>
       </c>
       <c r="F24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.166666666666667</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16.710696534664763</v>
       </c>
       <c r="H24" s="8">
@@ -1559,43 +1558,49 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="B25" s="1"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="29">
-        <f t="shared" ref="B26" si="7">IFERROR((($C$29*1000000000)*(D26/1000)^4)/(64*(G26/1000)*F26),"")</f>
+      <c r="B26" s="22">
+        <f t="shared" ref="B26" si="10">IFERROR((($C$29*1000000000)*(D26/1000)^4)/(64*(G26/1000)*F26),"")</f>
         <v>13.027921427505186</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="31">
+      <c r="C26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
         <f>CONVERT(E26,"in","mm")</f>
         <v>5.5562500000000004</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="25">
         <v>0.21875</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="26">
         <f>5+1/6</f>
         <v>5.166666666666667</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="22">
         <v>45</v>
       </c>
-      <c r="H26" s="29"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="31">
+        <f>G24+D24</f>
+        <v>18.298196534664761</v>
+      </c>
+      <c r="H28">
+        <f>CONVERT(G28,"mm","in")</f>
+        <v>0.72040143837262838</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
@@ -1609,7 +1614,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="30" t="s">
         <v>67</v>
       </c>
       <c r="C30">
@@ -1617,7 +1622,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
+      <c r="B31" s="30"/>
       <c r="C31">
         <v>0.98424999999999996</v>
       </c>
@@ -1649,14 +1654,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1957,7 +1962,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B17">
@@ -1965,7 +1970,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="30"/>
       <c r="B18">
         <v>0.98424999999999996</v>
       </c>
@@ -1986,7 +1991,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,14 +2002,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2529,12 +2534,12 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64819788-E38C-4DB0-853C-64F2FCD64A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265241A9-31AD-4CD5-AAFA-3C8630DC5B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
   <si>
     <t>N-m/rad</t>
   </si>
@@ -265,7 +265,19 @@
     <t>all hip springs need to have 1/8 coil past a full turn for proper assembly</t>
   </si>
   <si>
-    <t>Actual K119 hip spring</t>
+    <t>K119 hip spring theoretical</t>
+  </si>
+  <si>
+    <t>K119 hip spring manufactured</t>
+  </si>
+  <si>
+    <t>this one didn't work and we ran out of 7/32 wire</t>
+  </si>
+  <si>
+    <t>this is the one that was eventually made - actual diameter</t>
+  </si>
+  <si>
+    <t>this is the one that was eventually made - theoretical diameter</t>
   </si>
 </sst>
 </file>
@@ -371,6 +383,7 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="13" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,7 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,9 +419,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -447,7 +459,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -553,7 +565,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -695,7 +707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -706,7 +718,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,12 +729,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -797,10 +809,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="28"/>
       <c r="G10" t="s">
         <v>4</v>
       </c>
@@ -843,8 +855,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -859,10 +871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8781DA6-A82C-4E0B-8128-7A6EA08A4D8F}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,14 +889,14 @@
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
@@ -916,7 +928,7 @@
         <v>0.15625</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F8" si="0">(($C$29*1000000000)*(D2/1000)^4)/(64*(G2/1000)*B2)</f>
+        <f t="shared" ref="F2:F8" si="0">(($C$30*1000000000)*(D2/1000)^4)/(64*(G2/1000)*B2)</f>
         <v>4.265592252574681</v>
       </c>
       <c r="G2" s="6">
@@ -924,7 +936,7 @@
         <v>35.71875</v>
       </c>
       <c r="H2" s="10">
-        <f t="shared" ref="H2:H8" si="1">IFERROR(($C$30*(G2/D2)+$C$31)*G2-D2,"")</f>
+        <f t="shared" ref="H2:H8" si="1">IFERROR(($C$31*(G2/D2)+$C$32)*G2-D2,"")</f>
         <v>27.185143749999998</v>
       </c>
     </row>
@@ -1136,7 +1148,7 @@
         <v>4.125</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" ref="G10:G16" si="3">IFERROR(((($C$29*1000000000)*(D10/1000)^4)/(64*B10*F10))*1000,"")</f>
+        <f t="shared" ref="G10:G16" si="3">IFERROR(((($C$30*1000000000)*(D10/1000)^4)/(64*B10*F10))*1000,"")</f>
         <v>36.936151096158035</v>
       </c>
       <c r="H10" s="11">
@@ -1291,7 +1303,7 @@
         <v>3.1749999999999998</v>
       </c>
       <c r="E15" s="15">
-        <f t="shared" si="5"/>
+        <f>E7</f>
         <v>0.125</v>
       </c>
       <c r="F15" s="18">
@@ -1348,7 +1360,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="5" t="str">
-        <f>IF(ISBLANK(H18),"",IFERROR((($C$29*1000000000)*(D18/1000)^4)/(64*(G18/1000)*F18),""))</f>
+        <f>IF(ISBLANK(H18),"",IFERROR((($C$30*1000000000)*(D18/1000)^4)/(64*(G18/1000)*F18),""))</f>
         <v/>
       </c>
       <c r="C18" t="s">
@@ -1367,7 +1379,7 @@
         <v>4.125</v>
       </c>
       <c r="G18" s="5">
-        <f>((-($C$31*D18)/$C$30)-SQRT((-($C$31*D18)/$C$30)^2-(4*(D18*(H18+D18))/-$C$30)))/2</f>
+        <f>((-($C$32*D18)/$C$31)-SQRT((-($C$32*D18)/$C$31)^2-(4*(D18*(H18+D18))/-$C$31)))/2</f>
         <v>4.0854555575487268</v>
       </c>
       <c r="H18" s="8"/>
@@ -1380,7 +1392,7 @@
         <v>62</v>
       </c>
       <c r="B19" s="5">
-        <f t="shared" ref="B19:B24" si="7">IFERROR((($C$29*1000000000)*(D19/1000)^4)/(64*(G19/1000)*F19),"")</f>
+        <f t="shared" ref="B19:B24" si="7">IFERROR((($C$30*1000000000)*(D19/1000)^4)/(64*(G19/1000)*F19),"")</f>
         <v>3.8968448906097919</v>
       </c>
       <c r="C19" t="s">
@@ -1399,7 +1411,7 @@
         <v>5.125</v>
       </c>
       <c r="G19" s="5">
-        <f>((-($C$31*D19)/$C$30)-SQRT((-($C$31*D19)/$C$30)^2-(4*(D19*(H19+D19))/-$C$30)))/2</f>
+        <f>((-($C$32*D19)/$C$31)-SQRT((-($C$32*D19)/$C$31)^2-(4*(D19*(H19+D19))/-$C$31)))/2</f>
         <v>39.480164710575394</v>
       </c>
       <c r="H19" s="8">
@@ -1430,7 +1442,7 @@
         <v>6.125</v>
       </c>
       <c r="G20" s="5">
-        <f>((-($C$31*D20)/$C$30)-SQRT((-($C$31*D20)/$C$30)^2-(4*(D20*(H20+D20))/-$C$30)))/2</f>
+        <f>((-($C$32*D20)/$C$31)-SQRT((-($C$32*D20)/$C$31)^2-(4*(D20*(H20+D20))/-$C$31)))/2</f>
         <v>31.234175760982566</v>
       </c>
       <c r="H20" s="8">
@@ -1461,7 +1473,7 @@
         <v>4.125</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:G24" si="9">((-($C$31*D21)/$C$30)-SQRT((-($C$31*D21)/$C$30)^2-(4*(D21*(H21+D21))/-$C$30)))/2</f>
+        <f t="shared" ref="G21:G24" si="9">((-($C$32*D21)/$C$31)-SQRT((-($C$32*D21)/$C$31)^2-(4*(D21*(H21+D21))/-$C$31)))/2</f>
         <v>4.0854555575487268</v>
       </c>
       <c r="H21" s="8"/>
@@ -1570,7 +1582,7 @@
         <v>74</v>
       </c>
       <c r="B26" s="22">
-        <f t="shared" ref="B26" si="10">IFERROR((($C$29*1000000000)*(D26/1000)^4)/(64*(G26/1000)*F26),"")</f>
+        <f t="shared" ref="B26" si="10">IFERROR((($C$30*1000000000)*(D26/1000)^4)/(64*(G26/1000)*F26),"")</f>
         <v>13.027921427505186</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -1591,47 +1603,125 @@
         <v>45</v>
       </c>
       <c r="H26" s="22"/>
+      <c r="J26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="22">
+        <f t="shared" ref="B27" si="11">IFERROR((($C$30*1000000000)*(D27/1000)^4)/(64*(G27/1000)*F27),"")</f>
+        <v>13.377062421272489</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="24">
+        <f>CONVERT(E27,"in","mm")</f>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0.1875</v>
+      </c>
+      <c r="F27" s="26">
+        <f>3+(1/18)</f>
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="G27" s="22">
+        <v>40</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G28" s="31">
-        <f>G24+D24</f>
-        <v>18.298196534664761</v>
-      </c>
-      <c r="H28">
-        <f>CONVERT(G28,"mm","in")</f>
-        <v>0.72040143837262838</v>
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="22">
+        <f t="shared" ref="B28" si="12">IFERROR((($C$30*1000000000)*(D28/1000)^4)/(64*(G28/1000)*F28),"")</f>
+        <v>12.443778996532551</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <f>CONVERT(E28,"in","mm")</f>
+        <v>4.7625000000000002</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.1875</v>
+      </c>
+      <c r="F28" s="26">
+        <f>3+(1/18)</f>
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="G28" s="22">
+        <v>43</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="J28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="G29" s="27">
+        <f>G27-D27</f>
+        <v>35.237499999999997</v>
+      </c>
+      <c r="H29">
+        <f>CONVERT(G29,"mm","in")</f>
+        <v>1.3873031496062993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="7">
         <v>203.4</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
+      <c r="G30" s="27">
+        <f>G26-D26</f>
+        <v>39.443750000000001</v>
+      </c>
+      <c r="H30">
+        <f>CONVERT(G30,"mm","in")</f>
+        <v>1.5529035433070868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>-1.2449999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
-      <c r="C31">
+      <c r="G31">
+        <f>CONVERT(G24-D24,"mm","in")</f>
+        <v>0.59540143837262838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="31"/>
+      <c r="C32">
         <v>0.98424999999999996</v>
       </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1643,7 +1733,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,14 +1744,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1962,7 +2052,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>67</v>
       </c>
       <c r="B17">
@@ -1970,7 +2060,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18">
         <v>0.98424999999999996</v>
       </c>
@@ -2002,14 +2092,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
@@ -2534,12 +2624,12 @@
       <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
+++ b/CAD_Mechanical/AARL_QR-Quadruped/AARL_QR_FR-Frame/InProgress/Haonan/AARL_QR_FR_LE_BI_BL-Back_Left_new/New Spring Dimensions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Quadruped_Robot\CAD_Mechanical\AARL_QR-Quadruped\AARL_QR_FR-Frame\InProgress\Haonan\AARL_QR_FR_LE_BI_BL-Back_Left_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265241A9-31AD-4CD5-AAFA-3C8630DC5B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CEE141-5040-4A20-99D1-170CD39F200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
+    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA96BDC6-3A9B-4C76-9D78-C4C8DF3570E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,8 +1714,12 @@
         <v>0.98424999999999996</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="10"/>
+      <c r="G33">
+        <f>CONVERT(G27+D27,"mm","in")</f>
+        <v>1.7623031496062993</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
